--- a/00_ruta/adso_cronograma_228118_V1.xlsx
+++ b/00_ruta/adso_cronograma_228118_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D88922A-F8A1-4501-95A6-80497BA4CFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6994B511-5C27-4513-80E5-335DE7724486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
   </bookViews>
@@ -3528,13 +3528,6 @@
 validar los requisitos con el cliente</t>
   </si>
   <si>
-    <t>Diagrama de casos de uso
-Diagrama de actividades
-Casos de uso extendido
-Modelo de dominio del Sistema
-Modelo Entidad Relación</t>
-  </si>
-  <si>
     <t>Ficha Técnica</t>
   </si>
   <si>
@@ -3627,6 +3620,13 @@
   <si>
     <t>Servidor de Aplicaciones Web
 Desarrollar Software: Web y Móvil</t>
+  </si>
+  <si>
+    <t>Modelo de dominio del Sistema
+Diagrama de casos de uso
+Diagrama de actividades
+Casos de uso extendido
+Modelo Entidad Relación</t>
   </si>
 </sst>
 </file>
@@ -5822,24 +5822,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5849,7 +5886,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5860,83 +5896,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5946,16 +5922,40 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5970,14 +5970,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6829,91 +6829,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="198" t="s">
         <v>1131</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="221" t="s">
+      <c r="C11" s="208" t="s">
         <v>1128</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="211" t="s">
         <v>1132</v>
       </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="225"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="213"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C14" s="211" t="s">
         <v>1133</v>
       </c>
-      <c r="D14" s="199"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
@@ -6925,10 +6925,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="227" t="s">
+      <c r="C15" s="215" t="s">
         <v>1129</v>
       </c>
-      <c r="D15" s="228"/>
+      <c r="D15" s="216"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
@@ -6940,10 +6940,10 @@
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="229" t="s">
+      <c r="C16" s="217" t="s">
         <v>1133</v>
       </c>
-      <c r="D16" s="230"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -6953,8 +6953,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -6973,10 +6973,10 @@
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="219"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="17" t="s">
         <v>16</v>
       </c>
@@ -6988,10 +6988,10 @@
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="206" t="s">
         <v>1133</v>
       </c>
-      <c r="E22" s="220"/>
+      <c r="E22" s="206"/>
       <c r="F22" s="20" t="s">
         <v>1130</v>
       </c>
@@ -7048,8 +7048,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -7060,53 +7060,53 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="211"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="225"/>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="201" t="s">
         <v>1133</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="203"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="230"/>
       <c r="J36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="201"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="203"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="230"/>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="230"/>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="204"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="206"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="221"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -7267,6 +7267,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -7283,18 +7295,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -15802,8 +15802,8 @@
   <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -15825,296 +15825,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="231"/>
-      <c r="AI1" s="231"/>
-      <c r="AJ1" s="231"/>
-      <c r="AK1" s="231"/>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="231"/>
-      <c r="AN1" s="231"/>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="231"/>
-      <c r="AR1" s="231"/>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="231"/>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="231"/>
-      <c r="BI1" s="231"/>
-      <c r="BJ1" s="231"/>
-      <c r="BK1" s="231"/>
-      <c r="BL1" s="231"/>
-      <c r="BM1" s="231"/>
-      <c r="BN1" s="231"/>
-      <c r="BO1" s="231"/>
-      <c r="BP1" s="231"/>
-      <c r="BQ1" s="231"/>
-      <c r="BR1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236"/>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="236"/>
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="236"/>
+      <c r="BC1" s="236"/>
+      <c r="BD1" s="236"/>
+      <c r="BE1" s="236"/>
+      <c r="BF1" s="236"/>
+      <c r="BG1" s="236"/>
+      <c r="BH1" s="236"/>
+      <c r="BI1" s="236"/>
+      <c r="BJ1" s="236"/>
+      <c r="BK1" s="236"/>
+      <c r="BL1" s="236"/>
+      <c r="BM1" s="236"/>
+      <c r="BN1" s="236"/>
+      <c r="BO1" s="236"/>
+      <c r="BP1" s="236"/>
+      <c r="BQ1" s="236"/>
+      <c r="BR1" s="236"/>
     </row>
     <row r="2" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="232"/>
-      <c r="AY2" s="232"/>
-      <c r="AZ2" s="232"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="232"/>
-      <c r="BC2" s="232"/>
-      <c r="BD2" s="232"/>
-      <c r="BE2" s="232"/>
-      <c r="BF2" s="232"/>
-      <c r="BG2" s="232"/>
-      <c r="BH2" s="232"/>
-      <c r="BI2" s="232"/>
-      <c r="BJ2" s="232"/>
-      <c r="BK2" s="232"/>
-      <c r="BL2" s="232"/>
-      <c r="BM2" s="232"/>
-      <c r="BN2" s="232"/>
-      <c r="BO2" s="232"/>
-      <c r="BP2" s="232"/>
-      <c r="BQ2" s="232"/>
-      <c r="BR2" s="233"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="237"/>
+      <c r="AL2" s="237"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="237"/>
+      <c r="AO2" s="237"/>
+      <c r="AP2" s="237"/>
+      <c r="AQ2" s="237"/>
+      <c r="AR2" s="237"/>
+      <c r="AS2" s="237"/>
+      <c r="AT2" s="237"/>
+      <c r="AU2" s="237"/>
+      <c r="AV2" s="237"/>
+      <c r="AW2" s="237"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="237"/>
+      <c r="AZ2" s="237"/>
+      <c r="BA2" s="237"/>
+      <c r="BB2" s="237"/>
+      <c r="BC2" s="237"/>
+      <c r="BD2" s="237"/>
+      <c r="BE2" s="237"/>
+      <c r="BF2" s="237"/>
+      <c r="BG2" s="237"/>
+      <c r="BH2" s="237"/>
+      <c r="BI2" s="237"/>
+      <c r="BJ2" s="237"/>
+      <c r="BK2" s="237"/>
+      <c r="BL2" s="237"/>
+      <c r="BM2" s="237"/>
+      <c r="BN2" s="237"/>
+      <c r="BO2" s="237"/>
+      <c r="BP2" s="237"/>
+      <c r="BQ2" s="237"/>
+      <c r="BR2" s="238"/>
     </row>
     <row r="3" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="232"/>
-      <c r="AZ3" s="232"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="232"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="232"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="232"/>
-      <c r="BG3" s="232"/>
-      <c r="BH3" s="232"/>
-      <c r="BI3" s="232"/>
-      <c r="BJ3" s="232"/>
-      <c r="BK3" s="232"/>
-      <c r="BL3" s="232"/>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="233"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="237"/>
+      <c r="AJ3" s="237"/>
+      <c r="AK3" s="237"/>
+      <c r="AL3" s="237"/>
+      <c r="AM3" s="237"/>
+      <c r="AN3" s="237"/>
+      <c r="AO3" s="237"/>
+      <c r="AP3" s="237"/>
+      <c r="AQ3" s="237"/>
+      <c r="AR3" s="237"/>
+      <c r="AS3" s="237"/>
+      <c r="AT3" s="237"/>
+      <c r="AU3" s="237"/>
+      <c r="AV3" s="237"/>
+      <c r="AW3" s="237"/>
+      <c r="AX3" s="237"/>
+      <c r="AY3" s="237"/>
+      <c r="AZ3" s="237"/>
+      <c r="BA3" s="237"/>
+      <c r="BB3" s="237"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="237"/>
+      <c r="BH3" s="237"/>
+      <c r="BI3" s="237"/>
+      <c r="BJ3" s="237"/>
+      <c r="BK3" s="237"/>
+      <c r="BL3" s="237"/>
+      <c r="BM3" s="237"/>
+      <c r="BN3" s="237"/>
+      <c r="BO3" s="237"/>
+      <c r="BP3" s="237"/>
+      <c r="BQ3" s="237"/>
+      <c r="BR3" s="238"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
-      <c r="U4" s="234"/>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="234"/>
-      <c r="AI4" s="234"/>
-      <c r="AJ4" s="234"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="234"/>
-      <c r="AN4" s="234"/>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="234"/>
-      <c r="AU4" s="234"/>
-      <c r="AV4" s="234"/>
-      <c r="AW4" s="234"/>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="234"/>
-      <c r="AZ4" s="234"/>
-      <c r="BA4" s="234"/>
-      <c r="BB4" s="234"/>
-      <c r="BC4" s="234"/>
-      <c r="BD4" s="234"/>
-      <c r="BE4" s="234"/>
-      <c r="BF4" s="234"/>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="234"/>
-      <c r="BI4" s="234"/>
-      <c r="BJ4" s="234"/>
-      <c r="BK4" s="234"/>
-      <c r="BL4" s="234"/>
-      <c r="BM4" s="234"/>
-      <c r="BN4" s="234"/>
-      <c r="BO4" s="234"/>
-      <c r="BP4" s="234"/>
-      <c r="BQ4" s="234"/>
-      <c r="BR4" s="235"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="239"/>
+      <c r="Y4" s="239"/>
+      <c r="Z4" s="239"/>
+      <c r="AA4" s="239"/>
+      <c r="AB4" s="239"/>
+      <c r="AC4" s="239"/>
+      <c r="AD4" s="239"/>
+      <c r="AE4" s="239"/>
+      <c r="AF4" s="239"/>
+      <c r="AG4" s="239"/>
+      <c r="AH4" s="239"/>
+      <c r="AI4" s="239"/>
+      <c r="AJ4" s="239"/>
+      <c r="AK4" s="239"/>
+      <c r="AL4" s="239"/>
+      <c r="AM4" s="239"/>
+      <c r="AN4" s="239"/>
+      <c r="AO4" s="239"/>
+      <c r="AP4" s="239"/>
+      <c r="AQ4" s="239"/>
+      <c r="AR4" s="239"/>
+      <c r="AS4" s="239"/>
+      <c r="AT4" s="239"/>
+      <c r="AU4" s="239"/>
+      <c r="AV4" s="239"/>
+      <c r="AW4" s="239"/>
+      <c r="AX4" s="239"/>
+      <c r="AY4" s="239"/>
+      <c r="AZ4" s="239"/>
+      <c r="BA4" s="239"/>
+      <c r="BB4" s="239"/>
+      <c r="BC4" s="239"/>
+      <c r="BD4" s="239"/>
+      <c r="BE4" s="239"/>
+      <c r="BF4" s="239"/>
+      <c r="BG4" s="239"/>
+      <c r="BH4" s="239"/>
+      <c r="BI4" s="239"/>
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="239"/>
+      <c r="BL4" s="239"/>
+      <c r="BM4" s="239"/>
+      <c r="BN4" s="239"/>
+      <c r="BO4" s="239"/>
+      <c r="BP4" s="239"/>
+      <c r="BQ4" s="239"/>
+      <c r="BR4" s="240"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -16229,11 +16229,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="245">
+      <c r="D8" s="235">
         <v>45040</v>
       </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="K8" s="196" t="s">
@@ -16242,179 +16242,179 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="O8" s="240" t="str">
+      <c r="O8" s="232" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="240" t="str">
+      <c r="P8" s="233"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="232" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="240" t="str">
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="234"/>
+      <c r="AC8" s="232" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="242"/>
-      <c r="AJ8" s="240" t="str">
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="233"/>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="232" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="242"/>
-      <c r="AQ8" s="240" t="str">
+      <c r="AK8" s="233"/>
+      <c r="AL8" s="233"/>
+      <c r="AM8" s="233"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="234"/>
+      <c r="AQ8" s="232" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="241"/>
-      <c r="AS8" s="241"/>
-      <c r="AT8" s="241"/>
-      <c r="AU8" s="241"/>
-      <c r="AV8" s="241"/>
-      <c r="AW8" s="242"/>
-      <c r="AX8" s="240" t="str">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="233"/>
+      <c r="AT8" s="233"/>
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="233"/>
+      <c r="AW8" s="234"/>
+      <c r="AX8" s="232" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="241"/>
-      <c r="AZ8" s="241"/>
-      <c r="BA8" s="241"/>
-      <c r="BB8" s="241"/>
-      <c r="BC8" s="241"/>
-      <c r="BD8" s="242"/>
-      <c r="BE8" s="240" t="str">
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="233"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="234"/>
+      <c r="BE8" s="232" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="241"/>
-      <c r="BG8" s="241"/>
-      <c r="BH8" s="241"/>
-      <c r="BI8" s="241"/>
-      <c r="BJ8" s="241"/>
-      <c r="BK8" s="242"/>
-      <c r="BL8" s="240" t="str">
+      <c r="BF8" s="233"/>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="233"/>
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="234"/>
+      <c r="BL8" s="232" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="241"/>
-      <c r="BN8" s="241"/>
-      <c r="BO8" s="241"/>
-      <c r="BP8" s="241"/>
-      <c r="BQ8" s="241"/>
-      <c r="BR8" s="243"/>
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="233"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="233"/>
+      <c r="BQ8" s="233"/>
+      <c r="BR8" s="245"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="231" t="s">
         <v>1113</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="O9" s="236">
+      <c r="O9" s="241">
         <f>O10</f>
         <v>45040</v>
       </c>
-      <c r="P9" s="237"/>
-      <c r="Q9" s="237"/>
-      <c r="R9" s="237"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="237"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="236">
+      <c r="P9" s="242"/>
+      <c r="Q9" s="242"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="241">
         <f>V10</f>
         <v>45047</v>
       </c>
-      <c r="W9" s="237"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="237"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="236">
+      <c r="W9" s="242"/>
+      <c r="X9" s="242"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="241">
         <f>AC10</f>
         <v>45054</v>
       </c>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="237"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="237"/>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="238"/>
-      <c r="AJ9" s="236">
+      <c r="AD9" s="242"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="242"/>
+      <c r="AG9" s="242"/>
+      <c r="AH9" s="242"/>
+      <c r="AI9" s="243"/>
+      <c r="AJ9" s="241">
         <f>AJ10</f>
         <v>45061</v>
       </c>
-      <c r="AK9" s="237"/>
-      <c r="AL9" s="237"/>
-      <c r="AM9" s="237"/>
-      <c r="AN9" s="237"/>
-      <c r="AO9" s="237"/>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="236">
+      <c r="AK9" s="242"/>
+      <c r="AL9" s="242"/>
+      <c r="AM9" s="242"/>
+      <c r="AN9" s="242"/>
+      <c r="AO9" s="242"/>
+      <c r="AP9" s="243"/>
+      <c r="AQ9" s="241">
         <f>AQ10</f>
         <v>45068</v>
       </c>
-      <c r="AR9" s="237"/>
-      <c r="AS9" s="237"/>
-      <c r="AT9" s="237"/>
-      <c r="AU9" s="237"/>
-      <c r="AV9" s="237"/>
-      <c r="AW9" s="238"/>
-      <c r="AX9" s="236">
+      <c r="AR9" s="242"/>
+      <c r="AS9" s="242"/>
+      <c r="AT9" s="242"/>
+      <c r="AU9" s="242"/>
+      <c r="AV9" s="242"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="241">
         <f>AX10</f>
         <v>45075</v>
       </c>
-      <c r="AY9" s="237"/>
-      <c r="AZ9" s="237"/>
-      <c r="BA9" s="237"/>
-      <c r="BB9" s="237"/>
-      <c r="BC9" s="237"/>
-      <c r="BD9" s="238"/>
-      <c r="BE9" s="236">
+      <c r="AY9" s="242"/>
+      <c r="AZ9" s="242"/>
+      <c r="BA9" s="242"/>
+      <c r="BB9" s="242"/>
+      <c r="BC9" s="242"/>
+      <c r="BD9" s="243"/>
+      <c r="BE9" s="241">
         <f>BE10</f>
         <v>45082</v>
       </c>
-      <c r="BF9" s="237"/>
-      <c r="BG9" s="237"/>
-      <c r="BH9" s="237"/>
-      <c r="BI9" s="237"/>
-      <c r="BJ9" s="237"/>
-      <c r="BK9" s="238"/>
-      <c r="BL9" s="236">
+      <c r="BF9" s="242"/>
+      <c r="BG9" s="242"/>
+      <c r="BH9" s="242"/>
+      <c r="BI9" s="242"/>
+      <c r="BJ9" s="242"/>
+      <c r="BK9" s="243"/>
+      <c r="BL9" s="241">
         <f>BL10</f>
         <v>45089</v>
       </c>
-      <c r="BM9" s="237"/>
-      <c r="BN9" s="237"/>
-      <c r="BO9" s="237"/>
-      <c r="BP9" s="237"/>
-      <c r="BQ9" s="237"/>
-      <c r="BR9" s="239"/>
+      <c r="BM9" s="242"/>
+      <c r="BN9" s="242"/>
+      <c r="BO9" s="242"/>
+      <c r="BP9" s="242"/>
+      <c r="BQ9" s="242"/>
+      <c r="BR9" s="244"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="33">
@@ -17015,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G13" s="142" t="s">
         <v>35</v>
@@ -17985,7 +17985,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>1148</v>
+        <v>1170</v>
       </c>
       <c r="G23" s="142" t="s">
         <v>35</v>
@@ -18082,7 +18082,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G24" s="143" t="s">
         <v>35</v>
@@ -18179,7 +18179,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G25" s="142" t="s">
         <v>35</v>
@@ -18276,7 +18276,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G26" s="142" t="s">
         <v>35</v>
@@ -18373,7 +18373,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G27" s="142" t="s">
         <v>35</v>
@@ -18850,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G32" s="142" t="s">
         <v>35</v>
@@ -19820,7 +19820,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G42" s="142" t="s">
         <v>35</v>
@@ -19917,7 +19917,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G43" s="142" t="s">
         <v>35</v>
@@ -20014,7 +20014,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G44" s="142" t="s">
         <v>35</v>
@@ -20111,7 +20111,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G45" s="142" t="s">
         <v>35</v>
@@ -20297,7 +20297,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G47" s="142" t="s">
         <v>35</v>
@@ -20394,7 +20394,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G48" s="142" t="s">
         <v>35</v>
@@ -20491,7 +20491,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G49" s="142" t="s">
         <v>35</v>
@@ -20588,7 +20588,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G50" s="142" t="s">
         <v>35</v>
@@ -20685,7 +20685,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G51" s="142" t="s">
         <v>35</v>
@@ -20871,7 +20871,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G53" s="144" t="s">
         <v>35</v>
@@ -20968,7 +20968,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G54" s="142" t="s">
         <v>35</v>
@@ -21065,7 +21065,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G55" s="142" t="s">
         <v>35</v>
@@ -21162,7 +21162,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G56" s="142" t="s">
         <v>35</v>
@@ -21259,7 +21259,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G57" s="142" t="s">
         <v>35</v>
@@ -21356,7 +21356,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G58" s="142" t="s">
         <v>35</v>
@@ -21453,7 +21453,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G59" s="142" t="s">
         <v>35</v>
@@ -21608,12 +21608,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -21630,6 +21624,12 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L21:L22">
     <cfRule type="dataBar" priority="116">
@@ -21828,6 +21828,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F051754-87B9-4C18-8CD8-67421E498E01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -21837,18 +21849,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F051754-87B9-4C18-8CD8-67421E498E01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21960,11 +21960,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:BR59">
-    <cfRule type="expression" dxfId="1" priority="327">
+    <cfRule type="expression" dxfId="1" priority="326">
+      <formula>AND($I12&lt;=O$10,ROUNDDOWN(($J12-$I12+1)*$L12,0)+$I12-1&gt;=O$10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="327">
       <formula>AND(NOT(ISBLANK($I12)),$I12&lt;=O$10,$J12&gt;=O$10)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="326">
-      <formula>AND($I12&lt;=O$10,ROUNDDOWN(($J12-$I12+1)*$L12,0)+$I12-1&gt;=O$10)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" xWindow="1128" yWindow="374" count="1">
@@ -22220,7 +22220,7 @@
           <xm:sqref>L50 L47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}">
+          <x14:cfRule type="dataBar" id="{7F051754-87B9-4C18-8CD8-67421E498E01}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -22232,7 +22232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7F051754-87B9-4C18-8CD8-67421E498E01}">
+          <x14:cfRule type="dataBar" id="{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -22368,59 +22368,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22468,59 +22468,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22568,59 +22568,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22668,59 +22668,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>

--- a/00_ruta/adso_cronograma_228118_V1.xlsx
+++ b/00_ruta/adso_cronograma_228118_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6994B511-5C27-4513-80E5-335DE7724486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD62F2-85D9-4403-909C-375702B75417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
   </bookViews>
@@ -3612,9 +3612,6 @@
     <t>Codificación Mod-Usuario_RF (PE_POO)</t>
   </si>
   <si>
-    <t>Alcance en Tecnologías: Arquitectura, patrón de diseño, lenguajes, frameworks y librerías</t>
-  </si>
-  <si>
     <t>Base de datos SQL o NoSQL, consultas y automatizacion</t>
   </si>
   <si>
@@ -3622,10 +3619,13 @@
 Desarrollar Software: Web y Móvil</t>
   </si>
   <si>
+    <t>Alcance (software): Arquitectura, patrón de diseño, lenguajes, frameworks, librerías, etc.</t>
+  </si>
+  <si>
     <t>Modelo de dominio del Sistema
 Diagrama de casos de uso
+Casos de uso extendido
 Diagrama de actividades
-Casos de uso extendido
 Modelo Entidad Relación</t>
   </si>
 </sst>
@@ -5822,6 +5822,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5847,7 +5885,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5857,9 +5894,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5877,85 +5911,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6080,14 +6080,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>290259</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22528</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>128361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>345189</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>260426</xdr:rowOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>91093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6150,7 +6150,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57322</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>259367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6829,91 +6829,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="212" t="s">
         <v>1131</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="221" t="s">
         <v>1128</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="210"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="198" t="s">
         <v>1132</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="225"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="213"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="225"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="198" t="s">
         <v>1133</v>
       </c>
-      <c r="D14" s="226"/>
+      <c r="D14" s="199"/>
       <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
@@ -6925,10 +6925,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="227" t="s">
         <v>1129</v>
       </c>
-      <c r="D15" s="216"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
@@ -6940,10 +6940,10 @@
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="229" t="s">
         <v>1133</v>
       </c>
-      <c r="D16" s="218"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -6953,8 +6953,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -6973,10 +6973,10 @@
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="205"/>
+      <c r="E21" s="219"/>
       <c r="F21" s="17" t="s">
         <v>16</v>
       </c>
@@ -6988,10 +6988,10 @@
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="206" t="s">
+      <c r="D22" s="220" t="s">
         <v>1133</v>
       </c>
-      <c r="E22" s="206"/>
+      <c r="E22" s="220"/>
       <c r="F22" s="20" t="s">
         <v>1130</v>
       </c>
@@ -7048,8 +7048,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="208"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -7060,53 +7060,53 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="225"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="211"/>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="201" t="s">
+      <c r="B35" s="215" t="s">
         <v>1133</v>
       </c>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="230"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="J36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="230"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="228"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="230"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="203"/>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="219"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="206"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -7267,18 +7267,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -7295,6 +7283,18 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -7305,13 +7305,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88B23D7-E099-41A8-8113-4C2162D0967E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F540"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7343,7 +7344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="2" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A2" s="101">
         <v>240201530</v>
       </c>
@@ -7357,7 +7358,7 @@
       <c r="E2" s="99"/>
       <c r="F2" s="104"/>
     </row>
-    <row r="3" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="3" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A3" s="89">
         <v>240201530</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="96">
         <v>240201530</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="5" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A5" s="96">
         <v>240201530</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="96">
         <v>240201530</v>
       </c>
@@ -7435,7 +7436,7 @@
       </c>
       <c r="F6" s="95"/>
     </row>
-    <row r="7" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="96">
         <v>240201530</v>
       </c>
@@ -7453,7 +7454,7 @@
       </c>
       <c r="F7" s="95"/>
     </row>
-    <row r="8" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A8" s="96">
         <v>240201530</v>
       </c>
@@ -7471,7 +7472,7 @@
       </c>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A9" s="96">
         <v>240201530</v>
       </c>
@@ -7489,7 +7490,7 @@
       </c>
       <c r="F9" s="95"/>
     </row>
-    <row r="10" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A10" s="96">
         <v>240201530</v>
       </c>
@@ -7507,7 +7508,7 @@
       </c>
       <c r="F10" s="95"/>
     </row>
-    <row r="11" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A11" s="96">
         <v>240201530</v>
       </c>
@@ -7523,7 +7524,7 @@
       <c r="E11" s="95"/>
       <c r="F11" s="95"/>
     </row>
-    <row r="12" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="12" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A12" s="96">
         <v>240201530</v>
       </c>
@@ -7539,7 +7540,7 @@
       <c r="E12" s="95"/>
       <c r="F12" s="95"/>
     </row>
-    <row r="13" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="13" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A13" s="96">
         <v>240201530</v>
       </c>
@@ -7555,7 +7556,7 @@
       <c r="E13" s="95"/>
       <c r="F13" s="95"/>
     </row>
-    <row r="14" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="14" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A14" s="96">
         <v>240201530</v>
       </c>
@@ -7571,7 +7572,7 @@
       <c r="E14" s="95"/>
       <c r="F14" s="95"/>
     </row>
-    <row r="15" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A15" s="96">
         <v>240201530</v>
       </c>
@@ -7587,7 +7588,7 @@
       <c r="E15" s="95"/>
       <c r="F15" s="95"/>
     </row>
-    <row r="16" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="16" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A16" s="91">
         <v>240201530</v>
       </c>
@@ -7601,7 +7602,7 @@
       <c r="E16" s="94"/>
       <c r="F16" s="94"/>
     </row>
-    <row r="17" spans="1:6" s="120" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:6" s="120" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A17" s="115">
         <v>220501092</v>
       </c>
@@ -7615,7 +7616,7 @@
       <c r="E17" s="118"/>
       <c r="F17" s="119"/>
     </row>
-    <row r="18" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="89">
         <v>220501092</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="96">
         <v>220501092</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A20" s="96">
         <v>220501092</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A21" s="96">
         <v>220501092</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="96">
         <v>220501092</v>
       </c>
@@ -7709,7 +7710,7 @@
       <c r="E22" s="95"/>
       <c r="F22" s="95"/>
     </row>
-    <row r="23" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A23" s="96">
         <v>220501092</v>
       </c>
@@ -7725,7 +7726,7 @@
       <c r="E23" s="95"/>
       <c r="F23" s="95"/>
     </row>
-    <row r="24" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="24" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A24" s="96">
         <v>220501092</v>
       </c>
@@ -7741,7 +7742,7 @@
       <c r="E24" s="95"/>
       <c r="F24" s="95"/>
     </row>
-    <row r="25" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="25" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A25" s="91">
         <v>220501092</v>
       </c>
@@ -7755,7 +7756,7 @@
       <c r="E25" s="94"/>
       <c r="F25" s="94"/>
     </row>
-    <row r="26" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="26" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A26" s="89">
         <v>220501092</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="96">
         <v>220501092</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="28" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A28" s="96">
         <v>220501092</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="29" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A29" s="96">
         <v>220501092</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="96">
         <v>220501092</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A31" s="96">
         <v>220501092</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="96">
         <v>220501092</v>
       </c>
@@ -7889,7 +7890,7 @@
       </c>
       <c r="F32" s="95"/>
     </row>
-    <row r="33" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A33" s="96">
         <v>220501092</v>
       </c>
@@ -7905,7 +7906,7 @@
       </c>
       <c r="F33" s="95"/>
     </row>
-    <row r="34" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="34" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A34" s="91">
         <v>220501092</v>
       </c>
@@ -7919,7 +7920,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="94"/>
     </row>
-    <row r="35" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A35" s="89">
         <v>220501092</v>
       </c>
@@ -7939,7 +7940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A36" s="96">
         <v>220501092</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="96">
         <v>220501092</v>
       </c>
@@ -7977,7 +7978,7 @@
       </c>
       <c r="F37" s="95"/>
     </row>
-    <row r="38" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="96">
         <v>220501092</v>
       </c>
@@ -7993,7 +7994,7 @@
       <c r="E38" s="95"/>
       <c r="F38" s="95"/>
     </row>
-    <row r="39" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="39" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A39" s="91">
         <v>220501092</v>
       </c>
@@ -8007,7 +8008,7 @@
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
     </row>
-    <row r="40" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="40" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A40" s="89">
         <v>220501092</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="96">
         <v>220501092</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="42" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A42" s="96">
         <v>220501092</v>
       </c>
@@ -8065,7 +8066,7 @@
       </c>
       <c r="F42" s="95"/>
     </row>
-    <row r="43" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="43" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A43" s="96">
         <v>220501092</v>
       </c>
@@ -8081,7 +8082,7 @@
       </c>
       <c r="F43" s="95"/>
     </row>
-    <row r="44" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="44" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A44" s="91">
         <v>220501092</v>
       </c>
@@ -8095,7 +8096,7 @@
       <c r="E44" s="94"/>
       <c r="F44" s="94"/>
     </row>
-    <row r="45" spans="1:6" s="126" customFormat="1" ht="31.5">
+    <row r="45" spans="1:6" s="126" customFormat="1" ht="31.5" hidden="1">
       <c r="A45" s="121">
         <v>220501093</v>
       </c>
@@ -8109,7 +8110,7 @@
       <c r="E45" s="124"/>
       <c r="F45" s="125"/>
     </row>
-    <row r="46" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A46" s="105">
         <v>220501093</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A47" s="108">
         <v>220501093</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A48" s="108">
         <v>220501093</v>
       </c>
@@ -8167,7 +8168,7 @@
       </c>
       <c r="F48" s="110"/>
     </row>
-    <row r="49" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A49" s="108">
         <v>220501093</v>
       </c>
@@ -8185,7 +8186,7 @@
       </c>
       <c r="F49" s="110"/>
     </row>
-    <row r="50" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A50" s="108">
         <v>220501093</v>
       </c>
@@ -8201,7 +8202,7 @@
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
     </row>
-    <row r="51" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="51" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A51" s="91">
         <v>220501093</v>
       </c>
@@ -8215,7 +8216,7 @@
       <c r="E51" s="94"/>
       <c r="F51" s="94"/>
     </row>
-    <row r="52" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="52" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A52" s="89">
         <v>220501093</v>
       </c>
@@ -8235,7 +8236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="53" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A53" s="96">
         <v>220501093</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A54" s="96">
         <v>220501093</v>
       </c>
@@ -8275,7 +8276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="55" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A55" s="96">
         <v>220501093</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="56" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A56" s="96">
         <v>220501093</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="57" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A57" s="96">
         <v>220501093</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A58" s="96">
         <v>220501093</v>
       </c>
@@ -8353,7 +8354,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="59" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A59" s="91">
         <v>220501093</v>
       </c>
@@ -8367,7 +8368,7 @@
       <c r="E59" s="94"/>
       <c r="F59" s="94"/>
     </row>
-    <row r="60" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="60" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A60" s="89">
         <v>220501093</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="61" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A61" s="96">
         <v>220501093</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="62" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A62" s="96">
         <v>220501093</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="63" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A63" s="96">
         <v>220501093</v>
       </c>
@@ -8445,7 +8446,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="64" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A64" s="96">
         <v>220501093</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="65" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A65" s="96">
         <v>220501093</v>
       </c>
@@ -8479,7 +8480,7 @@
       </c>
       <c r="F65" s="95"/>
     </row>
-    <row r="66" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="66" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A66" s="96">
         <v>220501093</v>
       </c>
@@ -8495,7 +8496,7 @@
       </c>
       <c r="F66" s="95"/>
     </row>
-    <row r="67" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="67" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A67" s="91">
         <v>220501093</v>
       </c>
@@ -8509,7 +8510,7 @@
       <c r="E67" s="94"/>
       <c r="F67" s="94"/>
     </row>
-    <row r="68" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="68" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A68" s="89">
         <v>220501093</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="69" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A69" s="96">
         <v>220501093</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="70" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A70" s="96">
         <v>220501093</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="71" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A71" s="96">
         <v>220501093</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="72" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A72" s="96">
         <v>220501093</v>
       </c>
@@ -8605,7 +8606,7 @@
       </c>
       <c r="F72" s="95"/>
     </row>
-    <row r="73" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="73" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A73" s="91">
         <v>220501093</v>
       </c>
@@ -8619,7 +8620,7 @@
       <c r="E73" s="94"/>
       <c r="F73" s="94"/>
     </row>
-    <row r="74" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="74" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A74" s="121">
         <v>220501094</v>
       </c>
@@ -8633,7 +8634,7 @@
       <c r="E74" s="124"/>
       <c r="F74" s="125"/>
     </row>
-    <row r="75" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="75" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A75" s="89">
         <v>220501094</v>
       </c>
@@ -8653,7 +8654,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="76" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A76" s="96">
         <v>220501094</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="77" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A77" s="96">
         <v>220501094</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="78" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A78" s="96">
         <v>220501094</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="79" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A79" s="96">
         <v>220501094</v>
       </c>
@@ -8729,7 +8730,7 @@
       <c r="E79" s="95"/>
       <c r="F79" s="95"/>
     </row>
-    <row r="80" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="80" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A80" s="96">
         <v>220501094</v>
       </c>
@@ -8745,7 +8746,7 @@
       <c r="E80" s="95"/>
       <c r="F80" s="95"/>
     </row>
-    <row r="81" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="81" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A81" s="96">
         <v>220501094</v>
       </c>
@@ -8761,7 +8762,7 @@
       <c r="E81" s="95"/>
       <c r="F81" s="95"/>
     </row>
-    <row r="82" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="82" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A82" s="91">
         <v>220501094</v>
       </c>
@@ -8775,7 +8776,7 @@
       <c r="E82" s="94"/>
       <c r="F82" s="94"/>
     </row>
-    <row r="83" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="83" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A83" s="89">
         <v>220501094</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="84" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A84" s="96">
         <v>220501094</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="85" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A85" s="96">
         <v>220501094</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="86" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A86" s="96">
         <v>220501094</v>
       </c>
@@ -8851,7 +8852,7 @@
       <c r="E86" s="95"/>
       <c r="F86" s="95"/>
     </row>
-    <row r="87" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="87" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A87" s="91">
         <v>220501094</v>
       </c>
@@ -8865,7 +8866,7 @@
       <c r="E87" s="94"/>
       <c r="F87" s="94"/>
     </row>
-    <row r="88" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="88" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A88" s="89">
         <v>220501094</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="89" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A89" s="96">
         <v>220501094</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="90" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A90" s="96">
         <v>220501094</v>
       </c>
@@ -8925,7 +8926,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="91" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A91" s="96">
         <v>220501094</v>
       </c>
@@ -8943,7 +8944,7 @@
       </c>
       <c r="F91" s="95"/>
     </row>
-    <row r="92" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="92" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A92" s="91">
         <v>220501094</v>
       </c>
@@ -8957,7 +8958,7 @@
       <c r="E92" s="94"/>
       <c r="F92" s="94"/>
     </row>
-    <row r="93" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="93" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A93" s="121">
         <v>220501095</v>
       </c>
@@ -8971,7 +8972,7 @@
       <c r="E93" s="124"/>
       <c r="F93" s="125"/>
     </row>
-    <row r="94" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="94" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A94" s="89">
         <v>220501095</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="95" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A95" s="96">
         <v>220501095</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="96" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A96" s="96">
         <v>220501095</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="97" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A97" s="96">
         <v>220501095</v>
       </c>
@@ -9051,7 +9052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="98" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A98" s="96">
         <v>220501095</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="99" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A99" s="96">
         <v>220501095</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="100" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A100" s="96">
         <v>220501095</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="101" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A101" s="96">
         <v>220501095</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="102" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A102" s="96">
         <v>220501095</v>
       </c>
@@ -9149,7 +9150,7 @@
       </c>
       <c r="F102" s="95"/>
     </row>
-    <row r="103" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="103" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A103" s="96">
         <v>220501095</v>
       </c>
@@ -9165,7 +9166,7 @@
       <c r="E103" s="95"/>
       <c r="F103" s="95"/>
     </row>
-    <row r="104" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="104" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A104" s="96">
         <v>220501095</v>
       </c>
@@ -9181,7 +9182,7 @@
       <c r="E104" s="95"/>
       <c r="F104" s="95"/>
     </row>
-    <row r="105" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="105" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A105" s="96">
         <v>220501095</v>
       </c>
@@ -9197,7 +9198,7 @@
       <c r="E105" s="95"/>
       <c r="F105" s="95"/>
     </row>
-    <row r="106" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="106" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A106" s="96">
         <v>220501095</v>
       </c>
@@ -9213,7 +9214,7 @@
       <c r="E106" s="95"/>
       <c r="F106" s="95"/>
     </row>
-    <row r="107" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="107" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A107" s="96">
         <v>220501095</v>
       </c>
@@ -9229,7 +9230,7 @@
       <c r="E107" s="95"/>
       <c r="F107" s="95"/>
     </row>
-    <row r="108" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="108" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A108" s="91">
         <v>220501095</v>
       </c>
@@ -9243,7 +9244,7 @@
       <c r="E108" s="94"/>
       <c r="F108" s="94"/>
     </row>
-    <row r="109" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="109" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A109" s="89">
         <v>220501095</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="110" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A110" s="96">
         <v>220501095</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="111" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A111" s="96">
         <v>220501095</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="112" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A112" s="96">
         <v>220501095</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="113" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A113" s="96">
         <v>220501095</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="114" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A114" s="96">
         <v>220501095</v>
       </c>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="F114" s="95"/>
     </row>
-    <row r="115" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="115" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A115" s="91">
         <v>220501095</v>
       </c>
@@ -9375,7 +9376,7 @@
       <c r="E115" s="94"/>
       <c r="F115" s="94"/>
     </row>
-    <row r="116" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="116" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A116" s="89">
         <v>220501095</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="117" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A117" s="96">
         <v>220501095</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="118" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A118" s="96">
         <v>220501095</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="119" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A119" s="96">
         <v>220501095</v>
       </c>
@@ -9453,7 +9454,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="120" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A120" s="91">
         <v>220501095</v>
       </c>
@@ -9467,7 +9468,7 @@
       <c r="E120" s="94"/>
       <c r="F120" s="94"/>
     </row>
-    <row r="121" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="121" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A121" s="89">
         <v>220501095</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="122" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A122" s="96">
         <v>220501095</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="123" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A123" s="96">
         <v>220501095</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="124" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A124" s="96">
         <v>220501095</v>
       </c>
@@ -9543,7 +9544,7 @@
       <c r="E124" s="95"/>
       <c r="F124" s="95"/>
     </row>
-    <row r="125" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="125" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A125" s="96">
         <v>220501095</v>
       </c>
@@ -9559,7 +9560,7 @@
       <c r="E125" s="95"/>
       <c r="F125" s="95"/>
     </row>
-    <row r="126" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="126" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A126" s="91">
         <v>220501095</v>
       </c>
@@ -9573,7 +9574,7 @@
       <c r="E126" s="94"/>
       <c r="F126" s="94"/>
     </row>
-    <row r="127" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="127" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A127" s="121">
         <v>220501096</v>
       </c>
@@ -9587,7 +9588,7 @@
       <c r="E127" s="124"/>
       <c r="F127" s="125"/>
     </row>
-    <row r="128" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="128" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A128" s="89">
         <v>220501096</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="129" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A129" s="96">
         <v>220501096</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="130" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A130" s="96">
         <v>220501096</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="131" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A131" s="96">
         <v>220501096</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="132" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A132" s="96">
         <v>220501096</v>
       </c>
@@ -9681,7 +9682,7 @@
       </c>
       <c r="F132" s="88"/>
     </row>
-    <row r="133" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="133" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A133" s="91">
         <v>220501096</v>
       </c>
@@ -9695,7 +9696,7 @@
       <c r="E133" s="94"/>
       <c r="F133" s="94"/>
     </row>
-    <row r="134" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="134" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A134" s="89">
         <v>220501096</v>
       </c>
@@ -9715,7 +9716,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="135" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A135" s="96">
         <v>220501096</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="136" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A136" s="96">
         <v>220501096</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="137" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A137" s="91">
         <v>220501096</v>
       </c>
@@ -9769,7 +9770,7 @@
       <c r="E137" s="94"/>
       <c r="F137" s="94"/>
     </row>
-    <row r="138" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="138" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A138" s="89">
         <v>220501096</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="139" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A139" s="96">
         <v>220501096</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="140" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A140" s="96">
         <v>220501096</v>
       </c>
@@ -9825,7 +9826,7 @@
       <c r="E140" s="95"/>
       <c r="F140" s="95"/>
     </row>
-    <row r="141" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="141" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A141" s="96">
         <v>220501096</v>
       </c>
@@ -9841,7 +9842,7 @@
       <c r="E141" s="95"/>
       <c r="F141" s="95"/>
     </row>
-    <row r="142" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="142" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A142" s="96">
         <v>220501096</v>
       </c>
@@ -9857,7 +9858,7 @@
       <c r="E142" s="95"/>
       <c r="F142" s="95"/>
     </row>
-    <row r="143" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="143" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A143" s="96">
         <v>220501096</v>
       </c>
@@ -9873,7 +9874,7 @@
       <c r="E143" s="95"/>
       <c r="F143" s="95"/>
     </row>
-    <row r="144" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="144" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A144" s="91">
         <v>220501096</v>
       </c>
@@ -9887,7 +9888,7 @@
       <c r="E144" s="94"/>
       <c r="F144" s="94"/>
     </row>
-    <row r="145" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="145" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A145" s="89">
         <v>220501096</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="146" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A146" s="96">
         <v>220501096</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="147" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A147" s="96">
         <v>220501096</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="148" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A148" s="96">
         <v>220501096</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="149" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A149" s="96">
         <v>220501096</v>
       </c>
@@ -9985,7 +9986,7 @@
       </c>
       <c r="F149" s="95"/>
     </row>
-    <row r="150" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="150" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A150" s="96">
         <v>220501096</v>
       </c>
@@ -10001,7 +10002,7 @@
       <c r="E150" s="95"/>
       <c r="F150" s="95"/>
     </row>
-    <row r="151" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="151" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A151" s="96">
         <v>220501096</v>
       </c>
@@ -10017,7 +10018,7 @@
       <c r="E151" s="95"/>
       <c r="F151" s="95"/>
     </row>
-    <row r="152" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="152" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A152" s="96">
         <v>220501096</v>
       </c>
@@ -10033,7 +10034,7 @@
       <c r="E152" s="95"/>
       <c r="F152" s="95"/>
     </row>
-    <row r="153" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="153" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A153" s="96">
         <v>220501096</v>
       </c>
@@ -10049,7 +10050,7 @@
       <c r="E153" s="95"/>
       <c r="F153" s="95"/>
     </row>
-    <row r="154" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="154" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A154" s="96">
         <v>220501096</v>
       </c>
@@ -10065,7 +10066,7 @@
       <c r="E154" s="95"/>
       <c r="F154" s="95"/>
     </row>
-    <row r="155" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="155" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A155" s="96">
         <v>220501096</v>
       </c>
@@ -10081,7 +10082,7 @@
       <c r="E155" s="95"/>
       <c r="F155" s="95"/>
     </row>
-    <row r="156" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="156" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A156" s="96">
         <v>220501096</v>
       </c>
@@ -10097,7 +10098,7 @@
       <c r="E156" s="95"/>
       <c r="F156" s="95"/>
     </row>
-    <row r="157" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="157" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A157" s="96">
         <v>220501096</v>
       </c>
@@ -10113,7 +10114,7 @@
       <c r="E157" s="95"/>
       <c r="F157" s="95"/>
     </row>
-    <row r="158" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="158" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A158" s="91">
         <v>220501096</v>
       </c>
@@ -10127,7 +10128,7 @@
       <c r="E158" s="94"/>
       <c r="F158" s="94"/>
     </row>
-    <row r="159" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="159" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A159" s="89">
         <v>220501096</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="160" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A160" s="96">
         <v>220501096</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="161" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A161" s="96">
         <v>220501096</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="162" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A162" s="96">
         <v>220501096</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="163" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A163" s="96">
         <v>220501096</v>
       </c>
@@ -10219,7 +10220,7 @@
       </c>
       <c r="F163" s="95"/>
     </row>
-    <row r="164" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="164" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A164" s="91">
         <v>220501096</v>
       </c>
@@ -10233,7 +10234,7 @@
       <c r="E164" s="94"/>
       <c r="F164" s="94"/>
     </row>
-    <row r="165" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="165" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A165" s="121">
         <v>220501097</v>
       </c>
@@ -10247,7 +10248,7 @@
       <c r="E165" s="124"/>
       <c r="F165" s="125"/>
     </row>
-    <row r="166" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="166" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A166" s="89">
         <v>220501097</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="167" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A167" s="96">
         <v>220501097</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="168" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A168" s="96">
         <v>220501097</v>
       </c>
@@ -10307,7 +10308,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="169" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A169" s="96">
         <v>220501097</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="170" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A170" s="96">
         <v>220501097</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="171" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A171" s="96">
         <v>220501097</v>
       </c>
@@ -10363,7 +10364,7 @@
       <c r="E171" s="95"/>
       <c r="F171" s="95"/>
     </row>
-    <row r="172" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="172" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A172" s="96">
         <v>220501097</v>
       </c>
@@ -10379,7 +10380,7 @@
       <c r="E172" s="95"/>
       <c r="F172" s="95"/>
     </row>
-    <row r="173" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="173" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A173" s="91">
         <v>220501097</v>
       </c>
@@ -10393,7 +10394,7 @@
       <c r="E173" s="94"/>
       <c r="F173" s="94"/>
     </row>
-    <row r="174" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="174" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A174" s="89">
         <v>220501097</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="175" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A175" s="96">
         <v>220501097</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="176" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A176" s="96">
         <v>220501097</v>
       </c>
@@ -10453,7 +10454,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="177" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A177" s="96">
         <v>220501097</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="178" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A178" s="96">
         <v>220501097</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="179" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A179" s="96">
         <v>220501097</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="180" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A180" s="96">
         <v>220501097</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="181" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A181" s="96">
         <v>220501097</v>
       </c>
@@ -10541,7 +10542,7 @@
       </c>
       <c r="F181" s="95"/>
     </row>
-    <row r="182" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="182" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A182" s="96">
         <v>220501097</v>
       </c>
@@ -10557,7 +10558,7 @@
       </c>
       <c r="F182" s="95"/>
     </row>
-    <row r="183" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="183" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A183" s="96">
         <v>220501097</v>
       </c>
@@ -10573,7 +10574,7 @@
       </c>
       <c r="F183" s="95"/>
     </row>
-    <row r="184" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="184" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A184" s="96">
         <v>220501097</v>
       </c>
@@ -10589,7 +10590,7 @@
       </c>
       <c r="F184" s="95"/>
     </row>
-    <row r="185" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="185" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A185" s="91">
         <v>220501097</v>
       </c>
@@ -10603,7 +10604,7 @@
       <c r="E185" s="94"/>
       <c r="F185" s="94"/>
     </row>
-    <row r="186" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="186" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A186" s="89">
         <v>220501097</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="187" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A187" s="96">
         <v>220501097</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="188" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A188" s="96">
         <v>220501097</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="189" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A189" s="91">
         <v>220501097</v>
       </c>
@@ -10675,7 +10676,7 @@
       <c r="E189" s="94"/>
       <c r="F189" s="94"/>
     </row>
-    <row r="190" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="190" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A190" s="89">
         <v>220501097</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="191" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A191" s="96">
         <v>220501097</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="192" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A192" s="96">
         <v>220501097</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="193" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A193" s="96">
         <v>220501097</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="194" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A194" s="91">
         <v>220501097</v>
       </c>
@@ -10767,7 +10768,7 @@
       <c r="E194" s="94"/>
       <c r="F194" s="94"/>
     </row>
-    <row r="195" spans="1:6" s="126" customFormat="1" ht="31.5">
+    <row r="195" spans="1:6" s="126" customFormat="1" ht="31.5" hidden="1">
       <c r="A195" s="121">
         <v>220501098</v>
       </c>
@@ -10781,7 +10782,7 @@
       <c r="E195" s="124"/>
       <c r="F195" s="125"/>
     </row>
-    <row r="196" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="196" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A196" s="89">
         <v>220501098</v>
       </c>
@@ -10801,7 +10802,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="197" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A197" s="96">
         <v>220501098</v>
       </c>
@@ -10821,7 +10822,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="198" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A198" s="96">
         <v>220501098</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="199" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A199" s="96">
         <v>220501098</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="200" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A200" s="96">
         <v>220501098</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="201" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A201" s="96">
         <v>220501098</v>
       </c>
@@ -10901,7 +10902,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="202" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A202" s="96">
         <v>220501098</v>
       </c>
@@ -10917,7 +10918,7 @@
       <c r="E202" s="95"/>
       <c r="F202" s="95"/>
     </row>
-    <row r="203" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="203" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A203" s="91">
         <v>220501098</v>
       </c>
@@ -10931,7 +10932,7 @@
       <c r="E203" s="94"/>
       <c r="F203" s="94"/>
     </row>
-    <row r="204" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="204" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A204" s="89">
         <v>220501098</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="205" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A205" s="96">
         <v>220501098</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="206" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A206" s="96">
         <v>220501098</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="207" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A207" s="91">
         <v>220501098</v>
       </c>
@@ -11005,7 +11006,7 @@
       <c r="E207" s="94"/>
       <c r="F207" s="94"/>
     </row>
-    <row r="208" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="208" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A208" s="89">
         <v>220501098</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="209" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A209" s="96">
         <v>220501098</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="210" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A210" s="91">
         <v>220501098</v>
       </c>
@@ -11057,7 +11058,7 @@
       <c r="E210" s="94"/>
       <c r="F210" s="94"/>
     </row>
-    <row r="211" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="211" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A211" s="121">
         <v>240201517</v>
       </c>
@@ -11071,7 +11072,7 @@
       <c r="E211" s="124"/>
       <c r="F211" s="125"/>
     </row>
-    <row r="212" spans="1:6" ht="30" customHeight="1">
+    <row r="212" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A212" s="105">
         <v>240201517</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="30" customHeight="1">
+    <row r="213" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A213" s="105">
         <v>240201517</v>
       </c>
@@ -11111,7 +11112,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" customHeight="1">
+    <row r="214" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A214" s="105">
         <v>240201517</v>
       </c>
@@ -11131,7 +11132,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30" customHeight="1">
+    <row r="215" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A215" s="105">
         <v>240201517</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" customHeight="1">
+    <row r="216" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A216" s="108">
         <v>240201517</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30" customHeight="1">
+    <row r="217" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A217" s="108">
         <v>240201517</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30" customHeight="1">
+    <row r="218" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A218" s="108">
         <v>240201517</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="30" customHeight="1">
+    <row r="219" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A219" s="108">
         <v>240201517</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" customHeight="1">
+    <row r="220" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A220" s="108">
         <v>240201517</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" customHeight="1">
+    <row r="221" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A221" s="108">
         <v>240201517</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" customHeight="1">
+    <row r="222" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A222" s="108">
         <v>240201517</v>
       </c>
@@ -11263,7 +11264,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" customHeight="1">
+    <row r="223" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A223" s="108">
         <v>240201517</v>
       </c>
@@ -11277,7 +11278,7 @@
       </c>
       <c r="F223" s="110"/>
     </row>
-    <row r="224" spans="1:6" ht="30" customHeight="1">
+    <row r="224" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A224" s="108">
         <v>240201517</v>
       </c>
@@ -11291,7 +11292,7 @@
       </c>
       <c r="F224" s="110"/>
     </row>
-    <row r="225" spans="1:6" ht="30" customHeight="1">
+    <row r="225" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A225" s="108">
         <v>240201517</v>
       </c>
@@ -11305,7 +11306,7 @@
       </c>
       <c r="F225" s="110"/>
     </row>
-    <row r="226" spans="1:6" ht="30" customHeight="1">
+    <row r="226" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A226" s="108">
         <v>240201517</v>
       </c>
@@ -11319,7 +11320,7 @@
       </c>
       <c r="F226" s="110"/>
     </row>
-    <row r="227" spans="1:6" ht="30" customHeight="1">
+    <row r="227" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A227" s="108">
         <v>240201517</v>
       </c>
@@ -11333,7 +11334,7 @@
       </c>
       <c r="F227" s="110"/>
     </row>
-    <row r="228" spans="1:6" ht="30" customHeight="1">
+    <row r="228" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A228" s="108">
         <v>240201517</v>
       </c>
@@ -11347,7 +11348,7 @@
       </c>
       <c r="F228" s="110"/>
     </row>
-    <row r="229" spans="1:6" ht="30" customHeight="1">
+    <row r="229" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A229" s="108">
         <v>240201517</v>
       </c>
@@ -11361,7 +11362,7 @@
       </c>
       <c r="F229" s="110"/>
     </row>
-    <row r="230" spans="1:6" ht="30" customHeight="1">
+    <row r="230" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A230" s="108">
         <v>240201517</v>
       </c>
@@ -11373,7 +11374,7 @@
       </c>
       <c r="F230" s="110"/>
     </row>
-    <row r="231" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="231" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A231" s="91">
         <v>240201517</v>
       </c>
@@ -11383,7 +11384,7 @@
       <c r="E231" s="94"/>
       <c r="F231" s="94"/>
     </row>
-    <row r="232" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="232" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A232" s="121">
         <v>220501046</v>
       </c>
@@ -11397,7 +11398,7 @@
       <c r="E232" s="124"/>
       <c r="F232" s="125"/>
     </row>
-    <row r="233" spans="1:6" ht="38.25">
+    <row r="233" spans="1:6" ht="38.25" hidden="1">
       <c r="A233" s="105">
         <v>220501046</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" customHeight="1">
+    <row r="234" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A234" s="105">
         <v>220501046</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="30" customHeight="1">
+    <row r="235" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A235" s="105">
         <v>220501046</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" customHeight="1">
+    <row r="236" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A236" s="105">
         <v>220501046</v>
       </c>
@@ -11477,7 +11478,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" customHeight="1">
+    <row r="237" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A237" s="108">
         <v>220501046</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="63.75">
+    <row r="238" spans="1:6" ht="63.75" hidden="1">
       <c r="A238" s="108">
         <v>220501046</v>
       </c>
@@ -11509,7 +11510,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="76.5">
+    <row r="239" spans="1:6" ht="76.5" hidden="1">
       <c r="A239" s="108">
         <v>220501046</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="30" customHeight="1">
+    <row r="240" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A240" s="108">
         <v>220501046</v>
       </c>
@@ -11541,7 +11542,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="30" customHeight="1">
+    <row r="241" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A241" s="108">
         <v>220501046</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="38.25">
+    <row r="242" spans="1:6" ht="38.25" hidden="1">
       <c r="A242" s="108">
         <v>220501046</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="30" customHeight="1">
+    <row r="243" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A243" s="108">
         <v>220501046</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="38.25">
+    <row r="244" spans="1:6" ht="38.25" hidden="1">
       <c r="A244" s="108">
         <v>220501046</v>
       </c>
@@ -11597,7 +11598,7 @@
       <c r="E244" s="110"/>
       <c r="F244" s="110"/>
     </row>
-    <row r="245" spans="1:6" ht="30" customHeight="1">
+    <row r="245" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A245" s="108">
         <v>220501046</v>
       </c>
@@ -11609,7 +11610,7 @@
       <c r="E245" s="110"/>
       <c r="F245" s="110"/>
     </row>
-    <row r="246" spans="1:6" ht="30" customHeight="1">
+    <row r="246" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A246" s="108">
         <v>220501046</v>
       </c>
@@ -11621,7 +11622,7 @@
       <c r="E246" s="110"/>
       <c r="F246" s="110"/>
     </row>
-    <row r="247" spans="1:6" ht="30" customHeight="1">
+    <row r="247" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A247" s="108">
         <v>220501046</v>
       </c>
@@ -11633,7 +11634,7 @@
       <c r="E247" s="110"/>
       <c r="F247" s="110"/>
     </row>
-    <row r="248" spans="1:6" ht="30" customHeight="1">
+    <row r="248" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A248" s="108">
         <v>220501046</v>
       </c>
@@ -11645,7 +11646,7 @@
       <c r="E248" s="110"/>
       <c r="F248" s="110"/>
     </row>
-    <row r="249" spans="1:6" ht="89.25">
+    <row r="249" spans="1:6" ht="89.25" hidden="1">
       <c r="A249" s="108">
         <v>220501046</v>
       </c>
@@ -11657,7 +11658,7 @@
       <c r="E249" s="110"/>
       <c r="F249" s="110"/>
     </row>
-    <row r="250" spans="1:6" ht="30" customHeight="1">
+    <row r="250" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A250" s="108">
         <v>220501046</v>
       </c>
@@ -11669,7 +11670,7 @@
       <c r="E250" s="110"/>
       <c r="F250" s="110"/>
     </row>
-    <row r="251" spans="1:6" ht="30" customHeight="1">
+    <row r="251" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A251" s="108">
         <v>220501046</v>
       </c>
@@ -11681,7 +11682,7 @@
       <c r="E251" s="110"/>
       <c r="F251" s="110"/>
     </row>
-    <row r="252" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="252" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A252" s="91">
         <v>220501046</v>
       </c>
@@ -11897,7 +11898,7 @@
       <c r="E265" s="94"/>
       <c r="F265" s="94"/>
     </row>
-    <row r="266" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="266" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A266" s="121">
         <v>220201501</v>
       </c>
@@ -11911,7 +11912,7 @@
       <c r="E266" s="124"/>
       <c r="F266" s="125"/>
     </row>
-    <row r="267" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="267" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A267" s="105">
         <v>220201501</v>
       </c>
@@ -11931,7 +11932,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="268" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A268" s="105">
         <v>220201501</v>
       </c>
@@ -11951,7 +11952,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="269" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A269" s="105">
         <v>220201501</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="270" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A270" s="105">
         <v>220201501</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="271" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A271" s="108">
         <v>220201501</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="272" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A272" s="108">
         <v>220201501</v>
       </c>
@@ -12023,7 +12024,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="273" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A273" s="108">
         <v>220201501</v>
       </c>
@@ -12037,7 +12038,7 @@
       </c>
       <c r="F273" s="110"/>
     </row>
-    <row r="274" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="274" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A274" s="108">
         <v>220201501</v>
       </c>
@@ -12051,7 +12052,7 @@
       </c>
       <c r="F274" s="110"/>
     </row>
-    <row r="275" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="275" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A275" s="108">
         <v>220201501</v>
       </c>
@@ -12065,7 +12066,7 @@
       </c>
       <c r="F275" s="110"/>
     </row>
-    <row r="276" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="276" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A276" s="108">
         <v>220201501</v>
       </c>
@@ -12077,7 +12078,7 @@
       <c r="E276" s="110"/>
       <c r="F276" s="110"/>
     </row>
-    <row r="277" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="277" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A277" s="108">
         <v>220201501</v>
       </c>
@@ -12089,7 +12090,7 @@
       <c r="E277" s="110"/>
       <c r="F277" s="110"/>
     </row>
-    <row r="278" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="278" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A278" s="108">
         <v>220201501</v>
       </c>
@@ -12101,7 +12102,7 @@
       <c r="E278" s="110"/>
       <c r="F278" s="110"/>
     </row>
-    <row r="279" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="279" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A279" s="91">
         <v>220201501</v>
       </c>
@@ -12111,7 +12112,7 @@
       <c r="E279" s="94"/>
       <c r="F279" s="94"/>
     </row>
-    <row r="280" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="280" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A280" s="121">
         <v>240201525</v>
       </c>
@@ -12125,7 +12126,7 @@
       <c r="E280" s="124"/>
       <c r="F280" s="125"/>
     </row>
-    <row r="281" spans="1:6" ht="38.25">
+    <row r="281" spans="1:6" ht="38.25" hidden="1">
       <c r="A281" s="105">
         <v>240201525</v>
       </c>
@@ -12145,7 +12146,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="30" customHeight="1">
+    <row r="282" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A282" s="105">
         <v>240201525</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="30" customHeight="1">
+    <row r="283" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A283" s="105">
         <v>240201525</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" customHeight="1">
+    <row r="284" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A284" s="105">
         <v>240201525</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="30" customHeight="1">
+    <row r="285" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A285" s="127">
         <v>240201525</v>
       </c>
@@ -12221,7 +12222,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30" customHeight="1">
+    <row r="286" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A286" s="127">
         <v>240201525</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" customHeight="1">
+    <row r="287" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A287" s="127">
         <v>240201525</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" customHeight="1">
+    <row r="288" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A288" s="127">
         <v>240201525</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" customHeight="1">
+    <row r="289" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A289" s="127">
         <v>240201525</v>
       </c>
@@ -12283,7 +12284,7 @@
       </c>
       <c r="F289" s="110"/>
     </row>
-    <row r="290" spans="1:6" ht="30" customHeight="1">
+    <row r="290" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A290" s="127">
         <v>240201525</v>
       </c>
@@ -12297,7 +12298,7 @@
       </c>
       <c r="F290" s="110"/>
     </row>
-    <row r="291" spans="1:6" ht="30" customHeight="1">
+    <row r="291" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A291" s="127">
         <v>240201525</v>
       </c>
@@ -12311,7 +12312,7 @@
       </c>
       <c r="F291" s="110"/>
     </row>
-    <row r="292" spans="1:6" ht="30" customHeight="1">
+    <row r="292" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A292" s="127">
         <v>240201525</v>
       </c>
@@ -12325,7 +12326,7 @@
       </c>
       <c r="F292" s="110"/>
     </row>
-    <row r="293" spans="1:6" ht="30" customHeight="1">
+    <row r="293" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A293" s="127">
         <v>240201525</v>
       </c>
@@ -12337,7 +12338,7 @@
       </c>
       <c r="F293" s="110"/>
     </row>
-    <row r="294" spans="1:6" ht="30" customHeight="1">
+    <row r="294" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A294" s="127">
         <v>240201525</v>
       </c>
@@ -12349,7 +12350,7 @@
       </c>
       <c r="F294" s="110"/>
     </row>
-    <row r="295" spans="1:6" ht="30" customHeight="1">
+    <row r="295" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A295" s="127">
         <v>240201525</v>
       </c>
@@ -12361,7 +12362,7 @@
       </c>
       <c r="F295" s="110"/>
     </row>
-    <row r="296" spans="1:6" ht="30" customHeight="1">
+    <row r="296" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A296" s="127">
         <v>240201525</v>
       </c>
@@ -12373,7 +12374,7 @@
       </c>
       <c r="F296" s="110"/>
     </row>
-    <row r="297" spans="1:6" ht="30" customHeight="1">
+    <row r="297" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A297" s="127">
         <v>240201525</v>
       </c>
@@ -12385,7 +12386,7 @@
       </c>
       <c r="F297" s="110"/>
     </row>
-    <row r="298" spans="1:6" ht="30" customHeight="1">
+    <row r="298" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A298" s="127">
         <v>240201525</v>
       </c>
@@ -12397,7 +12398,7 @@
       </c>
       <c r="F298" s="110"/>
     </row>
-    <row r="299" spans="1:6" ht="30" customHeight="1">
+    <row r="299" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A299" s="127">
         <v>240201525</v>
       </c>
@@ -12409,7 +12410,7 @@
       </c>
       <c r="F299" s="110"/>
     </row>
-    <row r="300" spans="1:6" ht="30" customHeight="1">
+    <row r="300" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A300" s="127">
         <v>240201525</v>
       </c>
@@ -12421,7 +12422,7 @@
       </c>
       <c r="F300" s="110"/>
     </row>
-    <row r="301" spans="1:6" ht="30" customHeight="1">
+    <row r="301" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A301" s="127">
         <v>240201525</v>
       </c>
@@ -12433,7 +12434,7 @@
       </c>
       <c r="F301" s="110"/>
     </row>
-    <row r="302" spans="1:6" ht="30" customHeight="1">
+    <row r="302" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A302" s="127">
         <v>240201525</v>
       </c>
@@ -12445,7 +12446,7 @@
       </c>
       <c r="F302" s="110"/>
     </row>
-    <row r="303" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="303" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A303" s="91">
         <v>240201525</v>
       </c>
@@ -12455,7 +12456,7 @@
       <c r="E303" s="94"/>
       <c r="F303" s="94"/>
     </row>
-    <row r="304" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="304" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A304" s="121">
         <v>240201524</v>
       </c>
@@ -12469,7 +12470,7 @@
       <c r="E304" s="124"/>
       <c r="F304" s="125"/>
     </row>
-    <row r="305" spans="1:6" ht="30" customHeight="1">
+    <row r="305" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A305" s="105">
         <v>240201524</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="38.25">
+    <row r="306" spans="1:6" ht="38.25" hidden="1">
       <c r="A306" s="105">
         <v>240201524</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30" customHeight="1">
+    <row r="307" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A307" s="105">
         <v>240201524</v>
       </c>
@@ -12529,7 +12530,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="38.25">
+    <row r="308" spans="1:6" ht="38.25" hidden="1">
       <c r="A308" s="105">
         <v>240201524</v>
       </c>
@@ -12549,7 +12550,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="38.25">
+    <row r="309" spans="1:6" ht="38.25" hidden="1">
       <c r="A309" s="127">
         <v>240201524</v>
       </c>
@@ -12565,7 +12566,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" customHeight="1">
+    <row r="310" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A310" s="127">
         <v>240201524</v>
       </c>
@@ -12581,7 +12582,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" customHeight="1">
+    <row r="311" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A311" s="127">
         <v>240201524</v>
       </c>
@@ -12597,7 +12598,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" customHeight="1">
+    <row r="312" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A312" s="127">
         <v>240201524</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="38.25">
+    <row r="313" spans="1:6" ht="38.25" hidden="1">
       <c r="A313" s="127">
         <v>240201524</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30" customHeight="1">
+    <row r="314" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A314" s="127">
         <v>240201524</v>
       </c>
@@ -12645,7 +12646,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30" customHeight="1">
+    <row r="315" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A315" s="127">
         <v>240201524</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="30" customHeight="1">
+    <row r="316" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A316" s="127">
         <v>240201524</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="30" customHeight="1">
+    <row r="317" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A317" s="127">
         <v>240201524</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="30" customHeight="1">
+    <row r="318" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A318" s="127">
         <v>240201524</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" customHeight="1">
+    <row r="319" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A319" s="127">
         <v>240201524</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30" customHeight="1">
+    <row r="320" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A320" s="127">
         <v>240201524</v>
       </c>
@@ -12733,7 +12734,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" customHeight="1">
+    <row r="321" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A321" s="127">
         <v>240201524</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30" customHeight="1">
+    <row r="322" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A322" s="127">
         <v>240201524</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30" customHeight="1">
+    <row r="323" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A323" s="127">
         <v>240201524</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30" customHeight="1">
+    <row r="324" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A324" s="127">
         <v>240201524</v>
       </c>
@@ -12785,7 +12786,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="30" customHeight="1">
+    <row r="325" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A325" s="127">
         <v>240201524</v>
       </c>
@@ -12797,7 +12798,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" customHeight="1">
+    <row r="326" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A326" s="127">
         <v>240201524</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="327" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A327" s="91">
         <v>240201524</v>
       </c>
@@ -12819,7 +12820,7 @@
       <c r="E327" s="94"/>
       <c r="F327" s="94"/>
     </row>
-    <row r="328" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="328" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A328" s="121">
         <v>240202501</v>
       </c>
@@ -12833,7 +12834,7 @@
       <c r="E328" s="124"/>
       <c r="F328" s="125"/>
     </row>
-    <row r="329" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="329" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A329" s="105">
         <v>240202501</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="330" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A330" s="105">
         <v>240202501</v>
       </c>
@@ -12873,7 +12874,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="331" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A331" s="105">
         <v>240202501</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="332" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A332" s="105">
         <v>240202501</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="333" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A333" s="105">
         <v>240202501</v>
       </c>
@@ -12933,7 +12934,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="334" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A334" s="105">
         <v>240202501</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="335" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A335" s="108">
         <v>240202501</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="336" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A336" s="108">
         <v>240202501</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="337" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A337" s="108">
         <v>240202501</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="338" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A338" s="108">
         <v>240202501</v>
       </c>
@@ -13017,7 +13018,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="339" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A339" s="108">
         <v>240202501</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="87" customFormat="1" ht="51">
+    <row r="340" spans="1:6" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A340" s="108">
         <v>240202501</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="341" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A341" s="108">
         <v>240202501</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="342" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A342" s="108">
         <v>240202501</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="343" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A343" s="108">
         <v>240202501</v>
       </c>
@@ -13095,7 +13096,7 @@
       </c>
       <c r="F343" s="110"/>
     </row>
-    <row r="344" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="344" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A344" s="108">
         <v>240202501</v>
       </c>
@@ -13109,7 +13110,7 @@
       </c>
       <c r="F344" s="110"/>
     </row>
-    <row r="345" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="345" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A345" s="108">
         <v>240202501</v>
       </c>
@@ -13123,7 +13124,7 @@
       </c>
       <c r="F345" s="110"/>
     </row>
-    <row r="346" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="346" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A346" s="108">
         <v>240202501</v>
       </c>
@@ -13137,7 +13138,7 @@
       </c>
       <c r="F346" s="110"/>
     </row>
-    <row r="347" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="347" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A347" s="108">
         <v>240202501</v>
       </c>
@@ -13151,7 +13152,7 @@
       </c>
       <c r="F347" s="110"/>
     </row>
-    <row r="348" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="348" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A348" s="108">
         <v>240202501</v>
       </c>
@@ -13165,7 +13166,7 @@
       </c>
       <c r="F348" s="110"/>
     </row>
-    <row r="349" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="349" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A349" s="108">
         <v>240202501</v>
       </c>
@@ -13179,7 +13180,7 @@
       </c>
       <c r="F349" s="110"/>
     </row>
-    <row r="350" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="350" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A350" s="108">
         <v>240202501</v>
       </c>
@@ -13193,7 +13194,7 @@
       </c>
       <c r="F350" s="110"/>
     </row>
-    <row r="351" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="351" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A351" s="108">
         <v>240202501</v>
       </c>
@@ -13207,7 +13208,7 @@
       </c>
       <c r="F351" s="110"/>
     </row>
-    <row r="352" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="352" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A352" s="108">
         <v>240202501</v>
       </c>
@@ -13221,7 +13222,7 @@
       </c>
       <c r="F352" s="110"/>
     </row>
-    <row r="353" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="353" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A353" s="108">
         <v>240202501</v>
       </c>
@@ -13235,7 +13236,7 @@
       </c>
       <c r="F353" s="110"/>
     </row>
-    <row r="354" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="354" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A354" s="108">
         <v>240202501</v>
       </c>
@@ -13249,7 +13250,7 @@
       </c>
       <c r="F354" s="110"/>
     </row>
-    <row r="355" spans="1:6" s="87" customFormat="1" ht="38.25">
+    <row r="355" spans="1:6" s="87" customFormat="1" ht="38.25" hidden="1">
       <c r="A355" s="108">
         <v>240202501</v>
       </c>
@@ -13263,7 +13264,7 @@
       </c>
       <c r="F355" s="110"/>
     </row>
-    <row r="356" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="356" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A356" s="108">
         <v>240202501</v>
       </c>
@@ -13275,7 +13276,7 @@
       <c r="E356" s="110"/>
       <c r="F356" s="110"/>
     </row>
-    <row r="357" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="357" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A357" s="108">
         <v>240202501</v>
       </c>
@@ -13287,7 +13288,7 @@
       <c r="E357" s="110"/>
       <c r="F357" s="110"/>
     </row>
-    <row r="358" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="358" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A358" s="108">
         <v>240202501</v>
       </c>
@@ -13299,7 +13300,7 @@
       <c r="E358" s="110"/>
       <c r="F358" s="110"/>
     </row>
-    <row r="359" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="359" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A359" s="108">
         <v>240202501</v>
       </c>
@@ -13311,7 +13312,7 @@
       <c r="E359" s="110"/>
       <c r="F359" s="110"/>
     </row>
-    <row r="360" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="360" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A360" s="108">
         <v>240202501</v>
       </c>
@@ -13323,7 +13324,7 @@
       <c r="E360" s="110"/>
       <c r="F360" s="110"/>
     </row>
-    <row r="361" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="361" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A361" s="108">
         <v>240202501</v>
       </c>
@@ -13335,7 +13336,7 @@
       <c r="E361" s="110"/>
       <c r="F361" s="110"/>
     </row>
-    <row r="362" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="362" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A362" s="108">
         <v>240202501</v>
       </c>
@@ -13347,7 +13348,7 @@
       <c r="E362" s="110"/>
       <c r="F362" s="110"/>
     </row>
-    <row r="363" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="363" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A363" s="108">
         <v>240202501</v>
       </c>
@@ -13359,7 +13360,7 @@
       <c r="E363" s="110"/>
       <c r="F363" s="110"/>
     </row>
-    <row r="364" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="364" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A364" s="108">
         <v>240202501</v>
       </c>
@@ -13371,7 +13372,7 @@
       <c r="E364" s="110"/>
       <c r="F364" s="110"/>
     </row>
-    <row r="365" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="365" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A365" s="108">
         <v>240202501</v>
       </c>
@@ -13383,7 +13384,7 @@
       <c r="E365" s="110"/>
       <c r="F365" s="110"/>
     </row>
-    <row r="366" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="366" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A366" s="108">
         <v>240202501</v>
       </c>
@@ -13395,7 +13396,7 @@
       <c r="E366" s="110"/>
       <c r="F366" s="110"/>
     </row>
-    <row r="367" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="367" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A367" s="108">
         <v>240202501</v>
       </c>
@@ -13407,7 +13408,7 @@
       <c r="E367" s="110"/>
       <c r="F367" s="110"/>
     </row>
-    <row r="368" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="368" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A368" s="108">
         <v>240202501</v>
       </c>
@@ -13419,7 +13420,7 @@
       <c r="E368" s="110"/>
       <c r="F368" s="110"/>
     </row>
-    <row r="369" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="369" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A369" s="108">
         <v>240202501</v>
       </c>
@@ -13431,7 +13432,7 @@
       <c r="E369" s="110"/>
       <c r="F369" s="110"/>
     </row>
-    <row r="370" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="370" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A370" s="108">
         <v>240202501</v>
       </c>
@@ -13443,7 +13444,7 @@
       <c r="E370" s="110"/>
       <c r="F370" s="110"/>
     </row>
-    <row r="371" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="371" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A371" s="108">
         <v>240202501</v>
       </c>
@@ -13455,7 +13456,7 @@
       <c r="E371" s="110"/>
       <c r="F371" s="110"/>
     </row>
-    <row r="372" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="372" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A372" s="108">
         <v>240202501</v>
       </c>
@@ -13467,7 +13468,7 @@
       <c r="E372" s="110"/>
       <c r="F372" s="110"/>
     </row>
-    <row r="373" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="373" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A373" s="108">
         <v>240202501</v>
       </c>
@@ -13479,7 +13480,7 @@
       <c r="E373" s="110"/>
       <c r="F373" s="110"/>
     </row>
-    <row r="374" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="374" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A374" s="108">
         <v>240202501</v>
       </c>
@@ -13491,7 +13492,7 @@
       <c r="E374" s="110"/>
       <c r="F374" s="110"/>
     </row>
-    <row r="375" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="375" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A375" s="108">
         <v>240202501</v>
       </c>
@@ -13503,7 +13504,7 @@
       <c r="E375" s="110"/>
       <c r="F375" s="110"/>
     </row>
-    <row r="376" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="376" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A376" s="108">
         <v>240202501</v>
       </c>
@@ -13515,7 +13516,7 @@
       <c r="E376" s="110"/>
       <c r="F376" s="110"/>
     </row>
-    <row r="377" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="377" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A377" s="108">
         <v>240202501</v>
       </c>
@@ -13527,7 +13528,7 @@
       <c r="E377" s="110"/>
       <c r="F377" s="110"/>
     </row>
-    <row r="378" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="378" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A378" s="108">
         <v>240202501</v>
       </c>
@@ -13539,7 +13540,7 @@
       <c r="E378" s="110"/>
       <c r="F378" s="110"/>
     </row>
-    <row r="379" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="379" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A379" s="108">
         <v>240202501</v>
       </c>
@@ -13551,7 +13552,7 @@
       <c r="E379" s="110"/>
       <c r="F379" s="110"/>
     </row>
-    <row r="380" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="380" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A380" s="108">
         <v>240202501</v>
       </c>
@@ -13563,7 +13564,7 @@
       <c r="E380" s="110"/>
       <c r="F380" s="110"/>
     </row>
-    <row r="381" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="381" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A381" s="108">
         <v>240202501</v>
       </c>
@@ -13575,7 +13576,7 @@
       <c r="E381" s="110"/>
       <c r="F381" s="110"/>
     </row>
-    <row r="382" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="382" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A382" s="108">
         <v>240202501</v>
       </c>
@@ -13587,7 +13588,7 @@
       <c r="E382" s="110"/>
       <c r="F382" s="110"/>
     </row>
-    <row r="383" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="383" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A383" s="108">
         <v>240202501</v>
       </c>
@@ -13599,7 +13600,7 @@
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
     </row>
-    <row r="384" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="384" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A384" s="108">
         <v>240202501</v>
       </c>
@@ -13611,7 +13612,7 @@
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
     </row>
-    <row r="385" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="385" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A385" s="108">
         <v>240202501</v>
       </c>
@@ -13623,7 +13624,7 @@
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
     </row>
-    <row r="386" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="386" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A386" s="108">
         <v>240202501</v>
       </c>
@@ -13635,7 +13636,7 @@
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
     </row>
-    <row r="387" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="387" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A387" s="108">
         <v>240202501</v>
       </c>
@@ -13647,7 +13648,7 @@
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
     </row>
-    <row r="388" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="388" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A388" s="108">
         <v>240202501</v>
       </c>
@@ -13659,7 +13660,7 @@
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
     </row>
-    <row r="389" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="389" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A389" s="108">
         <v>240202501</v>
       </c>
@@ -13671,7 +13672,7 @@
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
     </row>
-    <row r="390" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="390" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A390" s="108">
         <v>240202501</v>
       </c>
@@ -13683,7 +13684,7 @@
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
     </row>
-    <row r="391" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="391" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A391" s="108">
         <v>240202501</v>
       </c>
@@ -13695,7 +13696,7 @@
       <c r="E391" s="110"/>
       <c r="F391" s="110"/>
     </row>
-    <row r="392" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="392" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A392" s="108">
         <v>240202501</v>
       </c>
@@ -13707,7 +13708,7 @@
       <c r="E392" s="110"/>
       <c r="F392" s="110"/>
     </row>
-    <row r="393" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="393" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A393" s="108">
         <v>240202501</v>
       </c>
@@ -13719,7 +13720,7 @@
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
     </row>
-    <row r="394" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="394" spans="1:6" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A394" s="108">
         <v>240202501</v>
       </c>
@@ -13731,7 +13732,7 @@
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
     </row>
-    <row r="395" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="395" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A395" s="91">
         <v>240202501</v>
       </c>
@@ -13741,7 +13742,7 @@
       <c r="E395" s="94"/>
       <c r="F395" s="94"/>
     </row>
-    <row r="396" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="396" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A396" s="121">
         <v>230101507</v>
       </c>
@@ -13755,7 +13756,7 @@
       <c r="E396" s="124"/>
       <c r="F396" s="125"/>
     </row>
-    <row r="397" spans="1:6" ht="30" customHeight="1">
+    <row r="397" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A397" s="105">
         <v>230101507</v>
       </c>
@@ -13775,7 +13776,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="30" customHeight="1">
+    <row r="398" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A398" s="105">
         <v>230101507</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="30" customHeight="1">
+    <row r="399" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A399" s="105">
         <v>230101507</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" customHeight="1">
+    <row r="400" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A400" s="105">
         <v>230101507</v>
       </c>
@@ -13835,7 +13836,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="30" customHeight="1">
+    <row r="401" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A401" s="127">
         <v>230101507</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" customHeight="1">
+    <row r="402" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A402" s="127">
         <v>230101507</v>
       </c>
@@ -13867,7 +13868,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" customHeight="1">
+    <row r="403" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A403" s="127">
         <v>230101507</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="38.25">
+    <row r="404" spans="1:6" ht="38.25" hidden="1">
       <c r="A404" s="127">
         <v>230101507</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="30" customHeight="1">
+    <row r="405" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A405" s="127">
         <v>230101507</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="30" customHeight="1">
+    <row r="406" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A406" s="127">
         <v>230101507</v>
       </c>
@@ -13931,7 +13932,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30" customHeight="1">
+    <row r="407" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A407" s="127">
         <v>230101507</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" customHeight="1">
+    <row r="408" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A408" s="127">
         <v>230101507</v>
       </c>
@@ -13957,7 +13958,7 @@
       <c r="E408" s="110"/>
       <c r="F408" s="110"/>
     </row>
-    <row r="409" spans="1:6" ht="30" customHeight="1">
+    <row r="409" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A409" s="127">
         <v>230101507</v>
       </c>
@@ -13969,7 +13970,7 @@
       <c r="E409" s="110"/>
       <c r="F409" s="110"/>
     </row>
-    <row r="410" spans="1:6" ht="30" customHeight="1">
+    <row r="410" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A410" s="127">
         <v>230101507</v>
       </c>
@@ -13981,7 +13982,7 @@
       <c r="E410" s="110"/>
       <c r="F410" s="110"/>
     </row>
-    <row r="411" spans="1:6" ht="30" customHeight="1">
+    <row r="411" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A411" s="127">
         <v>230101507</v>
       </c>
@@ -13993,7 +13994,7 @@
       <c r="E411" s="110"/>
       <c r="F411" s="110"/>
     </row>
-    <row r="412" spans="1:6" ht="30" customHeight="1">
+    <row r="412" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A412" s="127">
         <v>230101507</v>
       </c>
@@ -14005,7 +14006,7 @@
       <c r="E412" s="110"/>
       <c r="F412" s="110"/>
     </row>
-    <row r="413" spans="1:6" ht="30" customHeight="1">
+    <row r="413" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A413" s="127">
         <v>230101507</v>
       </c>
@@ -14017,7 +14018,7 @@
       <c r="E413" s="110"/>
       <c r="F413" s="110"/>
     </row>
-    <row r="414" spans="1:6" ht="30" customHeight="1">
+    <row r="414" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A414" s="127">
         <v>230101507</v>
       </c>
@@ -14029,7 +14030,7 @@
       <c r="E414" s="110"/>
       <c r="F414" s="110"/>
     </row>
-    <row r="415" spans="1:6" ht="30" customHeight="1">
+    <row r="415" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A415" s="127">
         <v>230101507</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="E415" s="110"/>
       <c r="F415" s="110"/>
     </row>
-    <row r="416" spans="1:6" ht="30" customHeight="1">
+    <row r="416" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A416" s="127">
         <v>230101507</v>
       </c>
@@ -14053,7 +14054,7 @@
       <c r="E416" s="110"/>
       <c r="F416" s="110"/>
     </row>
-    <row r="417" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="417" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A417" s="121">
         <v>220601501</v>
       </c>
@@ -14067,7 +14068,7 @@
       <c r="E417" s="124"/>
       <c r="F417" s="125"/>
     </row>
-    <row r="418" spans="1:6" ht="38.25">
+    <row r="418" spans="1:6" ht="38.25" hidden="1">
       <c r="A418" s="105">
         <v>220601501</v>
       </c>
@@ -14087,7 +14088,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="51">
+    <row r="419" spans="1:6" ht="51" hidden="1">
       <c r="A419" s="105">
         <v>220601501</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="38.25">
+    <row r="420" spans="1:6" ht="38.25" hidden="1">
       <c r="A420" s="105">
         <v>220601501</v>
       </c>
@@ -14127,7 +14128,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="51">
+    <row r="421" spans="1:6" ht="51" hidden="1">
       <c r="A421" s="105">
         <v>220601501</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="38.25">
+    <row r="422" spans="1:6" ht="38.25" hidden="1">
       <c r="A422" s="127">
         <v>220601501</v>
       </c>
@@ -14163,7 +14164,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="30" customHeight="1">
+    <row r="423" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A423" s="127">
         <v>220601501</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="38.25">
+    <row r="424" spans="1:6" ht="38.25" hidden="1">
       <c r="A424" s="127">
         <v>220601501</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="63.75">
+    <row r="425" spans="1:6" ht="63.75" hidden="1">
       <c r="A425" s="127">
         <v>220601501</v>
       </c>
@@ -14209,7 +14210,7 @@
       </c>
       <c r="F425" s="110"/>
     </row>
-    <row r="426" spans="1:6" ht="38.25">
+    <row r="426" spans="1:6" ht="38.25" hidden="1">
       <c r="A426" s="127">
         <v>220601501</v>
       </c>
@@ -14223,7 +14224,7 @@
       </c>
       <c r="F426" s="110"/>
     </row>
-    <row r="427" spans="1:6" ht="30" customHeight="1">
+    <row r="427" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A427" s="127">
         <v>220601501</v>
       </c>
@@ -14237,7 +14238,7 @@
       </c>
       <c r="F427" s="110"/>
     </row>
-    <row r="428" spans="1:6" ht="30" customHeight="1">
+    <row r="428" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A428" s="127">
         <v>220601501</v>
       </c>
@@ -14251,7 +14252,7 @@
       </c>
       <c r="F428" s="110"/>
     </row>
-    <row r="429" spans="1:6" ht="30" customHeight="1">
+    <row r="429" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A429" s="127">
         <v>220601501</v>
       </c>
@@ -14265,7 +14266,7 @@
       </c>
       <c r="F429" s="110"/>
     </row>
-    <row r="430" spans="1:6" ht="30" customHeight="1">
+    <row r="430" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A430" s="127">
         <v>220601501</v>
       </c>
@@ -14279,7 +14280,7 @@
       </c>
       <c r="F430" s="110"/>
     </row>
-    <row r="431" spans="1:6" ht="63.75">
+    <row r="431" spans="1:6" ht="63.75" hidden="1">
       <c r="A431" s="127">
         <v>220601501</v>
       </c>
@@ -14293,7 +14294,7 @@
       </c>
       <c r="F431" s="110"/>
     </row>
-    <row r="432" spans="1:6" ht="30" customHeight="1">
+    <row r="432" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A432" s="127">
         <v>220601501</v>
       </c>
@@ -14305,7 +14306,7 @@
       <c r="E432" s="110"/>
       <c r="F432" s="110"/>
     </row>
-    <row r="433" spans="1:6" ht="30" customHeight="1">
+    <row r="433" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A433" s="127">
         <v>220601501</v>
       </c>
@@ -14317,7 +14318,7 @@
       <c r="E433" s="110"/>
       <c r="F433" s="110"/>
     </row>
-    <row r="434" spans="1:6" ht="30" customHeight="1">
+    <row r="434" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A434" s="127">
         <v>220601501</v>
       </c>
@@ -14329,7 +14330,7 @@
       <c r="E434" s="110"/>
       <c r="F434" s="110"/>
     </row>
-    <row r="435" spans="1:6" ht="30" customHeight="1">
+    <row r="435" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A435" s="127">
         <v>220601501</v>
       </c>
@@ -14341,7 +14342,7 @@
       <c r="E435" s="110"/>
       <c r="F435" s="110"/>
     </row>
-    <row r="436" spans="1:6" ht="30" customHeight="1">
+    <row r="436" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A436" s="127">
         <v>220601501</v>
       </c>
@@ -14353,7 +14354,7 @@
       <c r="E436" s="110"/>
       <c r="F436" s="110"/>
     </row>
-    <row r="437" spans="1:6" ht="30" customHeight="1">
+    <row r="437" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A437" s="127">
         <v>220601501</v>
       </c>
@@ -14365,7 +14366,7 @@
       <c r="E437" s="110"/>
       <c r="F437" s="110"/>
     </row>
-    <row r="438" spans="1:6" ht="30" customHeight="1">
+    <row r="438" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A438" s="127">
         <v>220601501</v>
       </c>
@@ -14377,7 +14378,7 @@
       <c r="E438" s="110"/>
       <c r="F438" s="110"/>
     </row>
-    <row r="439" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="439" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A439" s="91">
         <v>220601501</v>
       </c>
@@ -14387,7 +14388,7 @@
       <c r="E439" s="94"/>
       <c r="F439" s="94"/>
     </row>
-    <row r="440" spans="1:6" s="126" customFormat="1" ht="31.5">
+    <row r="440" spans="1:6" s="126" customFormat="1" ht="31.5" hidden="1">
       <c r="A440" s="121">
         <v>240201526</v>
       </c>
@@ -14401,7 +14402,7 @@
       <c r="E440" s="124"/>
       <c r="F440" s="125"/>
     </row>
-    <row r="441" spans="1:6" ht="30" customHeight="1">
+    <row r="441" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A441" s="105">
         <v>240201526</v>
       </c>
@@ -14421,7 +14422,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="30" customHeight="1">
+    <row r="442" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A442" s="105">
         <v>240201526</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="30" customHeight="1">
+    <row r="443" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A443" s="105">
         <v>240201526</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="30" customHeight="1">
+    <row r="444" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A444" s="105">
         <v>240201526</v>
       </c>
@@ -14481,7 +14482,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="30" customHeight="1">
+    <row r="445" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A445" s="127">
         <v>240201526</v>
       </c>
@@ -14497,7 +14498,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="30" customHeight="1">
+    <row r="446" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A446" s="127">
         <v>240201526</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="30" customHeight="1">
+    <row r="447" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A447" s="127">
         <v>240201526</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="30" customHeight="1">
+    <row r="448" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A448" s="127">
         <v>240201526</v>
       </c>
@@ -14545,7 +14546,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="30" customHeight="1">
+    <row r="449" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A449" s="127">
         <v>240201526</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="30" customHeight="1">
+    <row r="450" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A450" s="127">
         <v>240201526</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="30" customHeight="1">
+    <row r="451" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A451" s="127">
         <v>240201526</v>
       </c>
@@ -14591,7 +14592,7 @@
       </c>
       <c r="F451" s="110"/>
     </row>
-    <row r="452" spans="1:6" ht="30" customHeight="1">
+    <row r="452" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A452" s="127">
         <v>240201526</v>
       </c>
@@ -14605,7 +14606,7 @@
       </c>
       <c r="F452" s="110"/>
     </row>
-    <row r="453" spans="1:6" ht="30" customHeight="1">
+    <row r="453" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A453" s="127">
         <v>240201526</v>
       </c>
@@ -14619,7 +14620,7 @@
       </c>
       <c r="F453" s="110"/>
     </row>
-    <row r="454" spans="1:6" ht="30" customHeight="1">
+    <row r="454" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A454" s="127">
         <v>240201526</v>
       </c>
@@ -14633,7 +14634,7 @@
       </c>
       <c r="F454" s="110"/>
     </row>
-    <row r="455" spans="1:6" ht="30" customHeight="1">
+    <row r="455" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A455" s="127">
         <v>240201526</v>
       </c>
@@ -14647,7 +14648,7 @@
       </c>
       <c r="F455" s="110"/>
     </row>
-    <row r="456" spans="1:6" ht="30" customHeight="1">
+    <row r="456" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A456" s="127">
         <v>240201526</v>
       </c>
@@ -14661,7 +14662,7 @@
       </c>
       <c r="F456" s="110"/>
     </row>
-    <row r="457" spans="1:6" ht="30" customHeight="1">
+    <row r="457" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A457" s="127">
         <v>240201526</v>
       </c>
@@ -14675,7 +14676,7 @@
       </c>
       <c r="F457" s="110"/>
     </row>
-    <row r="458" spans="1:6" ht="30" customHeight="1">
+    <row r="458" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A458" s="127">
         <v>240201526</v>
       </c>
@@ -14689,7 +14690,7 @@
       </c>
       <c r="F458" s="110"/>
     </row>
-    <row r="459" spans="1:6" ht="30" customHeight="1">
+    <row r="459" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A459" s="127">
         <v>240201526</v>
       </c>
@@ -14703,7 +14704,7 @@
       </c>
       <c r="F459" s="110"/>
     </row>
-    <row r="460" spans="1:6" ht="30" customHeight="1">
+    <row r="460" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A460" s="127">
         <v>240201526</v>
       </c>
@@ -14717,7 +14718,7 @@
       </c>
       <c r="F460" s="110"/>
     </row>
-    <row r="461" spans="1:6" ht="30" customHeight="1">
+    <row r="461" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A461" s="127">
         <v>240201526</v>
       </c>
@@ -14731,7 +14732,7 @@
       </c>
       <c r="F461" s="110"/>
     </row>
-    <row r="462" spans="1:6" ht="30" customHeight="1">
+    <row r="462" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A462" s="127">
         <v>240201526</v>
       </c>
@@ -14745,7 +14746,7 @@
       </c>
       <c r="F462" s="110"/>
     </row>
-    <row r="463" spans="1:6" ht="30" customHeight="1">
+    <row r="463" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A463" s="127">
         <v>240201526</v>
       </c>
@@ -14759,7 +14760,7 @@
       </c>
       <c r="F463" s="110"/>
     </row>
-    <row r="464" spans="1:6" ht="30" customHeight="1">
+    <row r="464" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A464" s="127">
         <v>240201526</v>
       </c>
@@ -14773,7 +14774,7 @@
       </c>
       <c r="F464" s="110"/>
     </row>
-    <row r="465" spans="1:6" ht="30" customHeight="1">
+    <row r="465" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A465" s="127">
         <v>240201526</v>
       </c>
@@ -14787,7 +14788,7 @@
       </c>
       <c r="F465" s="110"/>
     </row>
-    <row r="466" spans="1:6" ht="30" customHeight="1">
+    <row r="466" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A466" s="127">
         <v>240201526</v>
       </c>
@@ -14801,7 +14802,7 @@
       </c>
       <c r="F466" s="110"/>
     </row>
-    <row r="467" spans="1:6" ht="30" customHeight="1">
+    <row r="467" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A467" s="127">
         <v>240201526</v>
       </c>
@@ -14815,7 +14816,7 @@
       </c>
       <c r="F467" s="110"/>
     </row>
-    <row r="468" spans="1:6" ht="30" customHeight="1">
+    <row r="468" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A468" s="127">
         <v>240201526</v>
       </c>
@@ -14829,7 +14830,7 @@
       </c>
       <c r="F468" s="110"/>
     </row>
-    <row r="469" spans="1:6" ht="30" customHeight="1">
+    <row r="469" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A469" s="127">
         <v>240201526</v>
       </c>
@@ -14843,7 +14844,7 @@
       </c>
       <c r="F469" s="110"/>
     </row>
-    <row r="470" spans="1:6" ht="30" customHeight="1">
+    <row r="470" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A470" s="127">
         <v>240201526</v>
       </c>
@@ -14857,7 +14858,7 @@
       </c>
       <c r="F470" s="110"/>
     </row>
-    <row r="471" spans="1:6" ht="30" customHeight="1">
+    <row r="471" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A471" s="127">
         <v>240201526</v>
       </c>
@@ -14871,7 +14872,7 @@
       </c>
       <c r="F471" s="110"/>
     </row>
-    <row r="472" spans="1:6" ht="30" customHeight="1">
+    <row r="472" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A472" s="127">
         <v>240201526</v>
       </c>
@@ -14885,7 +14886,7 @@
       </c>
       <c r="F472" s="110"/>
     </row>
-    <row r="473" spans="1:6" ht="30" customHeight="1">
+    <row r="473" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A473" s="127">
         <v>240201526</v>
       </c>
@@ -14899,7 +14900,7 @@
       </c>
       <c r="F473" s="110"/>
     </row>
-    <row r="474" spans="1:6" ht="30" customHeight="1">
+    <row r="474" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A474" s="127">
         <v>240201526</v>
       </c>
@@ -14913,7 +14914,7 @@
       </c>
       <c r="F474" s="110"/>
     </row>
-    <row r="475" spans="1:6" ht="30" customHeight="1">
+    <row r="475" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A475" s="127">
         <v>240201526</v>
       </c>
@@ -14927,7 +14928,7 @@
       </c>
       <c r="F475" s="110"/>
     </row>
-    <row r="476" spans="1:6" ht="30" customHeight="1">
+    <row r="476" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A476" s="127">
         <v>240201526</v>
       </c>
@@ -14941,7 +14942,7 @@
       </c>
       <c r="F476" s="110"/>
     </row>
-    <row r="477" spans="1:6" ht="30" customHeight="1">
+    <row r="477" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A477" s="127">
         <v>240201526</v>
       </c>
@@ -14955,7 +14956,7 @@
       </c>
       <c r="F477" s="110"/>
     </row>
-    <row r="478" spans="1:6" ht="30" customHeight="1">
+    <row r="478" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A478" s="127">
         <v>240201526</v>
       </c>
@@ -14969,7 +14970,7 @@
       </c>
       <c r="F478" s="110"/>
     </row>
-    <row r="479" spans="1:6" ht="30" customHeight="1">
+    <row r="479" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A479" s="127">
         <v>240201526</v>
       </c>
@@ -14983,7 +14984,7 @@
       </c>
       <c r="F479" s="110"/>
     </row>
-    <row r="480" spans="1:6" ht="30" customHeight="1">
+    <row r="480" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A480" s="127">
         <v>240201526</v>
       </c>
@@ -14997,7 +14998,7 @@
       </c>
       <c r="F480" s="110"/>
     </row>
-    <row r="481" spans="1:6" ht="30" customHeight="1">
+    <row r="481" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A481" s="127">
         <v>240201526</v>
       </c>
@@ -15011,7 +15012,7 @@
       </c>
       <c r="F481" s="110"/>
     </row>
-    <row r="482" spans="1:6" ht="30" customHeight="1">
+    <row r="482" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A482" s="127">
         <v>240201526</v>
       </c>
@@ -15025,7 +15026,7 @@
       </c>
       <c r="F482" s="110"/>
     </row>
-    <row r="483" spans="1:6" ht="30" customHeight="1">
+    <row r="483" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A483" s="127">
         <v>240201526</v>
       </c>
@@ -15039,7 +15040,7 @@
       </c>
       <c r="F483" s="110"/>
     </row>
-    <row r="484" spans="1:6" ht="30" customHeight="1">
+    <row r="484" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A484" s="127">
         <v>240201526</v>
       </c>
@@ -15053,7 +15054,7 @@
       </c>
       <c r="F484" s="110"/>
     </row>
-    <row r="485" spans="1:6" ht="30" customHeight="1">
+    <row r="485" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A485" s="127">
         <v>240201526</v>
       </c>
@@ -15067,7 +15068,7 @@
       </c>
       <c r="F485" s="110"/>
     </row>
-    <row r="486" spans="1:6" ht="30" customHeight="1">
+    <row r="486" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A486" s="127">
         <v>240201526</v>
       </c>
@@ -15081,7 +15082,7 @@
       </c>
       <c r="F486" s="110"/>
     </row>
-    <row r="487" spans="1:6" ht="30" customHeight="1">
+    <row r="487" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A487" s="127">
         <v>240201526</v>
       </c>
@@ -15095,7 +15096,7 @@
       </c>
       <c r="F487" s="110"/>
     </row>
-    <row r="488" spans="1:6" ht="30" customHeight="1">
+    <row r="488" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A488" s="127">
         <v>240201526</v>
       </c>
@@ -15109,7 +15110,7 @@
       </c>
       <c r="F488" s="110"/>
     </row>
-    <row r="489" spans="1:6" ht="30" customHeight="1">
+    <row r="489" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A489" s="127">
         <v>240201526</v>
       </c>
@@ -15123,7 +15124,7 @@
       </c>
       <c r="F489" s="110"/>
     </row>
-    <row r="490" spans="1:6" ht="30" customHeight="1">
+    <row r="490" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A490" s="127">
         <v>240201526</v>
       </c>
@@ -15137,7 +15138,7 @@
       </c>
       <c r="F490" s="110"/>
     </row>
-    <row r="491" spans="1:6" ht="30" customHeight="1">
+    <row r="491" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A491" s="127">
         <v>240201526</v>
       </c>
@@ -15151,7 +15152,7 @@
       </c>
       <c r="F491" s="110"/>
     </row>
-    <row r="492" spans="1:6" ht="30" customHeight="1">
+    <row r="492" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A492" s="127">
         <v>240201526</v>
       </c>
@@ -15163,7 +15164,7 @@
       <c r="E492" s="128"/>
       <c r="F492" s="110"/>
     </row>
-    <row r="493" spans="1:6" ht="63.75">
+    <row r="493" spans="1:6" ht="63.75" hidden="1">
       <c r="A493" s="127">
         <v>240201526</v>
       </c>
@@ -15175,7 +15176,7 @@
       <c r="E493" s="110"/>
       <c r="F493" s="110"/>
     </row>
-    <row r="494" spans="1:6" ht="51">
+    <row r="494" spans="1:6" ht="51" hidden="1">
       <c r="A494" s="127">
         <v>240201526</v>
       </c>
@@ -15187,7 +15188,7 @@
       <c r="E494" s="110"/>
       <c r="F494" s="110"/>
     </row>
-    <row r="495" spans="1:6" ht="30" customHeight="1">
+    <row r="495" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A495" s="127">
         <v>240201526</v>
       </c>
@@ -15199,7 +15200,7 @@
       <c r="E495" s="110"/>
       <c r="F495" s="110"/>
     </row>
-    <row r="496" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="496" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A496" s="91">
         <v>240201526</v>
       </c>
@@ -15209,7 +15210,7 @@
       <c r="E496" s="94"/>
       <c r="F496" s="94"/>
     </row>
-    <row r="497" spans="1:6" s="126" customFormat="1" ht="30" customHeight="1">
+    <row r="497" spans="1:6" s="126" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A497" s="121">
         <v>210201501</v>
       </c>
@@ -15223,7 +15224,7 @@
       <c r="E497" s="124"/>
       <c r="F497" s="125"/>
     </row>
-    <row r="498" spans="1:6" ht="38.25">
+    <row r="498" spans="1:6" ht="38.25" hidden="1">
       <c r="A498" s="105">
         <v>210201501</v>
       </c>
@@ -15243,7 +15244,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="30" customHeight="1">
+    <row r="499" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A499" s="105">
         <v>210201501</v>
       </c>
@@ -15263,7 +15264,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="38.25">
+    <row r="500" spans="1:6" ht="38.25" hidden="1">
       <c r="A500" s="105">
         <v>210201501</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="38.25">
+    <row r="501" spans="1:6" ht="38.25" hidden="1">
       <c r="A501" s="105">
         <v>210201501</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="38.25">
+    <row r="502" spans="1:6" ht="38.25" hidden="1">
       <c r="A502" s="127">
         <v>210201501</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="30" customHeight="1">
+    <row r="503" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A503" s="127">
         <v>210201501</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="30" customHeight="1">
+    <row r="504" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A504" s="127">
         <v>210201501</v>
       </c>
@@ -15351,7 +15352,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="30" customHeight="1">
+    <row r="505" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A505" s="127">
         <v>210201501</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="51">
+    <row r="506" spans="1:6" ht="51" hidden="1">
       <c r="A506" s="127">
         <v>210201501</v>
       </c>
@@ -15379,7 +15380,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="51">
+    <row r="507" spans="1:6" ht="51" hidden="1">
       <c r="A507" s="127">
         <v>210201501</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="30" customHeight="1">
+    <row r="508" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A508" s="127">
         <v>210201501</v>
       </c>
@@ -15405,7 +15406,7 @@
       <c r="E508" s="110"/>
       <c r="F508" s="110"/>
     </row>
-    <row r="509" spans="1:6" ht="30" customHeight="1">
+    <row r="509" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A509" s="127">
         <v>210201501</v>
       </c>
@@ -15417,7 +15418,7 @@
       <c r="E509" s="110"/>
       <c r="F509" s="110"/>
     </row>
-    <row r="510" spans="1:6" ht="30" customHeight="1">
+    <row r="510" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A510" s="127">
         <v>210201501</v>
       </c>
@@ -15429,7 +15430,7 @@
       <c r="E510" s="110"/>
       <c r="F510" s="110"/>
     </row>
-    <row r="511" spans="1:6" ht="30" customHeight="1">
+    <row r="511" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A511" s="127">
         <v>210201501</v>
       </c>
@@ -15441,7 +15442,7 @@
       <c r="E511" s="110"/>
       <c r="F511" s="110"/>
     </row>
-    <row r="512" spans="1:6" ht="30" customHeight="1">
+    <row r="512" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A512" s="127">
         <v>210201501</v>
       </c>
@@ -15453,7 +15454,7 @@
       <c r="E512" s="110"/>
       <c r="F512" s="110"/>
     </row>
-    <row r="513" spans="1:6" ht="30" customHeight="1">
+    <row r="513" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A513" s="127">
         <v>210201501</v>
       </c>
@@ -15465,7 +15466,7 @@
       <c r="E513" s="110"/>
       <c r="F513" s="110"/>
     </row>
-    <row r="514" spans="1:6" ht="30" customHeight="1">
+    <row r="514" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A514" s="127">
         <v>210201501</v>
       </c>
@@ -15477,7 +15478,7 @@
       <c r="E514" s="110"/>
       <c r="F514" s="110"/>
     </row>
-    <row r="515" spans="1:6" ht="30" customHeight="1">
+    <row r="515" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A515" s="127">
         <v>210201501</v>
       </c>
@@ -15489,7 +15490,7 @@
       <c r="E515" s="110"/>
       <c r="F515" s="110"/>
     </row>
-    <row r="516" spans="1:6" ht="30" customHeight="1">
+    <row r="516" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A516" s="127">
         <v>210201501</v>
       </c>
@@ -15501,7 +15502,7 @@
       <c r="E516" s="110"/>
       <c r="F516" s="110"/>
     </row>
-    <row r="517" spans="1:6" ht="30" customHeight="1">
+    <row r="517" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A517" s="127">
         <v>210201501</v>
       </c>
@@ -15513,7 +15514,7 @@
       <c r="E517" s="110"/>
       <c r="F517" s="110"/>
     </row>
-    <row r="518" spans="1:6" ht="30" customHeight="1">
+    <row r="518" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A518" s="127">
         <v>210201501</v>
       </c>
@@ -15525,7 +15526,7 @@
       <c r="E518" s="110"/>
       <c r="F518" s="110"/>
     </row>
-    <row r="519" spans="1:6" ht="30" customHeight="1">
+    <row r="519" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A519" s="127">
         <v>210201501</v>
       </c>
@@ -15537,7 +15538,7 @@
       <c r="E519" s="110"/>
       <c r="F519" s="110"/>
     </row>
-    <row r="520" spans="1:6" ht="30" customHeight="1">
+    <row r="520" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A520" s="127">
         <v>210201501</v>
       </c>
@@ -15549,7 +15550,7 @@
       <c r="E520" s="110"/>
       <c r="F520" s="110"/>
     </row>
-    <row r="521" spans="1:6" ht="30" customHeight="1">
+    <row r="521" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A521" s="127">
         <v>210201501</v>
       </c>
@@ -15561,7 +15562,7 @@
       <c r="E521" s="110"/>
       <c r="F521" s="110"/>
     </row>
-    <row r="522" spans="1:6" ht="30" customHeight="1">
+    <row r="522" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A522" s="127">
         <v>210201501</v>
       </c>
@@ -15573,7 +15574,7 @@
       <c r="E522" s="110"/>
       <c r="F522" s="110"/>
     </row>
-    <row r="523" spans="1:6" ht="30" customHeight="1">
+    <row r="523" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A523" s="127">
         <v>210201501</v>
       </c>
@@ -15585,7 +15586,7 @@
       <c r="E523" s="110"/>
       <c r="F523" s="110"/>
     </row>
-    <row r="524" spans="1:6" ht="38.25">
+    <row r="524" spans="1:6" ht="38.25" hidden="1">
       <c r="A524" s="127">
         <v>210201501</v>
       </c>
@@ -15597,7 +15598,7 @@
       <c r="E524" s="110"/>
       <c r="F524" s="110"/>
     </row>
-    <row r="525" spans="1:6" ht="30" customHeight="1">
+    <row r="525" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A525" s="127">
         <v>210201501</v>
       </c>
@@ -15609,7 +15610,7 @@
       <c r="E525" s="110"/>
       <c r="F525" s="110"/>
     </row>
-    <row r="526" spans="1:6" ht="30" customHeight="1">
+    <row r="526" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A526" s="127">
         <v>210201501</v>
       </c>
@@ -15621,7 +15622,7 @@
       <c r="E526" s="110"/>
       <c r="F526" s="110"/>
     </row>
-    <row r="527" spans="1:6" ht="30" customHeight="1">
+    <row r="527" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A527" s="127">
         <v>210201501</v>
       </c>
@@ -15633,7 +15634,7 @@
       <c r="E527" s="110"/>
       <c r="F527" s="110"/>
     </row>
-    <row r="528" spans="1:6" ht="30" customHeight="1">
+    <row r="528" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A528" s="127">
         <v>210201501</v>
       </c>
@@ -15645,7 +15646,7 @@
       <c r="E528" s="110"/>
       <c r="F528" s="110"/>
     </row>
-    <row r="529" spans="1:6" ht="30" customHeight="1">
+    <row r="529" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A529" s="127">
         <v>210201501</v>
       </c>
@@ -15657,7 +15658,7 @@
       <c r="E529" s="110"/>
       <c r="F529" s="110"/>
     </row>
-    <row r="530" spans="1:6" ht="30" customHeight="1">
+    <row r="530" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A530" s="127">
         <v>210201501</v>
       </c>
@@ -15669,7 +15670,7 @@
       <c r="E530" s="110"/>
       <c r="F530" s="110"/>
     </row>
-    <row r="531" spans="1:6" ht="30" customHeight="1">
+    <row r="531" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A531" s="127">
         <v>210201501</v>
       </c>
@@ -15681,7 +15682,7 @@
       <c r="E531" s="110"/>
       <c r="F531" s="110"/>
     </row>
-    <row r="532" spans="1:6" ht="30" customHeight="1">
+    <row r="532" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A532" s="127">
         <v>210201501</v>
       </c>
@@ -15693,7 +15694,7 @@
       <c r="E532" s="110"/>
       <c r="F532" s="110"/>
     </row>
-    <row r="533" spans="1:6" ht="30" customHeight="1">
+    <row r="533" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A533" s="127">
         <v>210201501</v>
       </c>
@@ -15705,7 +15706,7 @@
       <c r="E533" s="110"/>
       <c r="F533" s="110"/>
     </row>
-    <row r="534" spans="1:6" ht="30" customHeight="1">
+    <row r="534" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A534" s="127">
         <v>210201501</v>
       </c>
@@ -15717,7 +15718,7 @@
       <c r="E534" s="110"/>
       <c r="F534" s="110"/>
     </row>
-    <row r="535" spans="1:6" ht="30" customHeight="1">
+    <row r="535" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A535" s="127">
         <v>210201501</v>
       </c>
@@ -15729,7 +15730,7 @@
       <c r="E535" s="110"/>
       <c r="F535" s="110"/>
     </row>
-    <row r="536" spans="1:6" ht="30" customHeight="1">
+    <row r="536" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A536" s="127">
         <v>210201501</v>
       </c>
@@ -15741,7 +15742,7 @@
       <c r="E536" s="110"/>
       <c r="F536" s="110"/>
     </row>
-    <row r="537" spans="1:6" ht="30" customHeight="1">
+    <row r="537" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A537" s="127">
         <v>210201501</v>
       </c>
@@ -15753,7 +15754,7 @@
       <c r="E537" s="110"/>
       <c r="F537" s="110"/>
     </row>
-    <row r="538" spans="1:6" ht="30" customHeight="1">
+    <row r="538" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A538" s="127">
         <v>210201501</v>
       </c>
@@ -15765,7 +15766,7 @@
       <c r="E538" s="110"/>
       <c r="F538" s="110"/>
     </row>
-    <row r="539" spans="1:6" ht="30" customHeight="1">
+    <row r="539" spans="1:6" ht="30" hidden="1" customHeight="1">
       <c r="A539" s="127">
         <v>210201501</v>
       </c>
@@ -15777,7 +15778,7 @@
       <c r="E539" s="110"/>
       <c r="F539" s="110"/>
     </row>
-    <row r="540" spans="1:6" s="87" customFormat="1" ht="8.1" customHeight="1">
+    <row r="540" spans="1:6" s="87" customFormat="1" ht="8.1" hidden="1" customHeight="1">
       <c r="A540" s="91">
         <v>210201501</v>
       </c>
@@ -15789,7 +15790,13 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A1:F540" xr:uid="{A88B23D7-E099-41A8-8113-4C2162D0967E}"/>
+  <autoFilter ref="A1:F540" xr:uid="{A88B23D7-E099-41A8-8113-4C2162D0967E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="240201064"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup scale="35" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
@@ -15799,11 +15806,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -15825,296 +15833,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
-      <c r="BB1" s="236"/>
-      <c r="BC1" s="236"/>
-      <c r="BD1" s="236"/>
-      <c r="BE1" s="236"/>
-      <c r="BF1" s="236"/>
-      <c r="BG1" s="236"/>
-      <c r="BH1" s="236"/>
-      <c r="BI1" s="236"/>
-      <c r="BJ1" s="236"/>
-      <c r="BK1" s="236"/>
-      <c r="BL1" s="236"/>
-      <c r="BM1" s="236"/>
-      <c r="BN1" s="236"/>
-      <c r="BO1" s="236"/>
-      <c r="BP1" s="236"/>
-      <c r="BQ1" s="236"/>
-      <c r="BR1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="231"/>
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="231"/>
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="231"/>
+      <c r="AH1" s="231"/>
+      <c r="AI1" s="231"/>
+      <c r="AJ1" s="231"/>
+      <c r="AK1" s="231"/>
+      <c r="AL1" s="231"/>
+      <c r="AM1" s="231"/>
+      <c r="AN1" s="231"/>
+      <c r="AO1" s="231"/>
+      <c r="AP1" s="231"/>
+      <c r="AQ1" s="231"/>
+      <c r="AR1" s="231"/>
+      <c r="AS1" s="231"/>
+      <c r="AT1" s="231"/>
+      <c r="AU1" s="231"/>
+      <c r="AV1" s="231"/>
+      <c r="AW1" s="231"/>
+      <c r="AX1" s="231"/>
+      <c r="AY1" s="231"/>
+      <c r="AZ1" s="231"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
+      <c r="BC1" s="231"/>
+      <c r="BD1" s="231"/>
+      <c r="BE1" s="231"/>
+      <c r="BF1" s="231"/>
+      <c r="BG1" s="231"/>
+      <c r="BH1" s="231"/>
+      <c r="BI1" s="231"/>
+      <c r="BJ1" s="231"/>
+      <c r="BK1" s="231"/>
+      <c r="BL1" s="231"/>
+      <c r="BM1" s="231"/>
+      <c r="BN1" s="231"/>
+      <c r="BO1" s="231"/>
+      <c r="BP1" s="231"/>
+      <c r="BQ1" s="231"/>
+      <c r="BR1" s="231"/>
     </row>
     <row r="2" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
-      <c r="AM2" s="237"/>
-      <c r="AN2" s="237"/>
-      <c r="AO2" s="237"/>
-      <c r="AP2" s="237"/>
-      <c r="AQ2" s="237"/>
-      <c r="AR2" s="237"/>
-      <c r="AS2" s="237"/>
-      <c r="AT2" s="237"/>
-      <c r="AU2" s="237"/>
-      <c r="AV2" s="237"/>
-      <c r="AW2" s="237"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="237"/>
-      <c r="AZ2" s="237"/>
-      <c r="BA2" s="237"/>
-      <c r="BB2" s="237"/>
-      <c r="BC2" s="237"/>
-      <c r="BD2" s="237"/>
-      <c r="BE2" s="237"/>
-      <c r="BF2" s="237"/>
-      <c r="BG2" s="237"/>
-      <c r="BH2" s="237"/>
-      <c r="BI2" s="237"/>
-      <c r="BJ2" s="237"/>
-      <c r="BK2" s="237"/>
-      <c r="BL2" s="237"/>
-      <c r="BM2" s="237"/>
-      <c r="BN2" s="237"/>
-      <c r="BO2" s="237"/>
-      <c r="BP2" s="237"/>
-      <c r="BQ2" s="237"/>
-      <c r="BR2" s="238"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="232"/>
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="232"/>
+      <c r="AG2" s="232"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="232"/>
+      <c r="AJ2" s="232"/>
+      <c r="AK2" s="232"/>
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="232"/>
+      <c r="AQ2" s="232"/>
+      <c r="AR2" s="232"/>
+      <c r="AS2" s="232"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="232"/>
+      <c r="AX2" s="232"/>
+      <c r="AY2" s="232"/>
+      <c r="AZ2" s="232"/>
+      <c r="BA2" s="232"/>
+      <c r="BB2" s="232"/>
+      <c r="BC2" s="232"/>
+      <c r="BD2" s="232"/>
+      <c r="BE2" s="232"/>
+      <c r="BF2" s="232"/>
+      <c r="BG2" s="232"/>
+      <c r="BH2" s="232"/>
+      <c r="BI2" s="232"/>
+      <c r="BJ2" s="232"/>
+      <c r="BK2" s="232"/>
+      <c r="BL2" s="232"/>
+      <c r="BM2" s="232"/>
+      <c r="BN2" s="232"/>
+      <c r="BO2" s="232"/>
+      <c r="BP2" s="232"/>
+      <c r="BQ2" s="232"/>
+      <c r="BR2" s="233"/>
     </row>
     <row r="3" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="237"/>
-      <c r="AE3" s="237"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="237"/>
-      <c r="AH3" s="237"/>
-      <c r="AI3" s="237"/>
-      <c r="AJ3" s="237"/>
-      <c r="AK3" s="237"/>
-      <c r="AL3" s="237"/>
-      <c r="AM3" s="237"/>
-      <c r="AN3" s="237"/>
-      <c r="AO3" s="237"/>
-      <c r="AP3" s="237"/>
-      <c r="AQ3" s="237"/>
-      <c r="AR3" s="237"/>
-      <c r="AS3" s="237"/>
-      <c r="AT3" s="237"/>
-      <c r="AU3" s="237"/>
-      <c r="AV3" s="237"/>
-      <c r="AW3" s="237"/>
-      <c r="AX3" s="237"/>
-      <c r="AY3" s="237"/>
-      <c r="AZ3" s="237"/>
-      <c r="BA3" s="237"/>
-      <c r="BB3" s="237"/>
-      <c r="BC3" s="237"/>
-      <c r="BD3" s="237"/>
-      <c r="BE3" s="237"/>
-      <c r="BF3" s="237"/>
-      <c r="BG3" s="237"/>
-      <c r="BH3" s="237"/>
-      <c r="BI3" s="237"/>
-      <c r="BJ3" s="237"/>
-      <c r="BK3" s="237"/>
-      <c r="BL3" s="237"/>
-      <c r="BM3" s="237"/>
-      <c r="BN3" s="237"/>
-      <c r="BO3" s="237"/>
-      <c r="BP3" s="237"/>
-      <c r="BQ3" s="237"/>
-      <c r="BR3" s="238"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="232"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="232"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="232"/>
+      <c r="AG3" s="232"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="232"/>
+      <c r="AJ3" s="232"/>
+      <c r="AK3" s="232"/>
+      <c r="AL3" s="232"/>
+      <c r="AM3" s="232"/>
+      <c r="AN3" s="232"/>
+      <c r="AO3" s="232"/>
+      <c r="AP3" s="232"/>
+      <c r="AQ3" s="232"/>
+      <c r="AR3" s="232"/>
+      <c r="AS3" s="232"/>
+      <c r="AT3" s="232"/>
+      <c r="AU3" s="232"/>
+      <c r="AV3" s="232"/>
+      <c r="AW3" s="232"/>
+      <c r="AX3" s="232"/>
+      <c r="AY3" s="232"/>
+      <c r="AZ3" s="232"/>
+      <c r="BA3" s="232"/>
+      <c r="BB3" s="232"/>
+      <c r="BC3" s="232"/>
+      <c r="BD3" s="232"/>
+      <c r="BE3" s="232"/>
+      <c r="BF3" s="232"/>
+      <c r="BG3" s="232"/>
+      <c r="BH3" s="232"/>
+      <c r="BI3" s="232"/>
+      <c r="BJ3" s="232"/>
+      <c r="BK3" s="232"/>
+      <c r="BL3" s="232"/>
+      <c r="BM3" s="232"/>
+      <c r="BN3" s="232"/>
+      <c r="BO3" s="232"/>
+      <c r="BP3" s="232"/>
+      <c r="BQ3" s="232"/>
+      <c r="BR3" s="233"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="239"/>
-      <c r="R4" s="239"/>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="239"/>
-      <c r="W4" s="239"/>
-      <c r="X4" s="239"/>
-      <c r="Y4" s="239"/>
-      <c r="Z4" s="239"/>
-      <c r="AA4" s="239"/>
-      <c r="AB4" s="239"/>
-      <c r="AC4" s="239"/>
-      <c r="AD4" s="239"/>
-      <c r="AE4" s="239"/>
-      <c r="AF4" s="239"/>
-      <c r="AG4" s="239"/>
-      <c r="AH4" s="239"/>
-      <c r="AI4" s="239"/>
-      <c r="AJ4" s="239"/>
-      <c r="AK4" s="239"/>
-      <c r="AL4" s="239"/>
-      <c r="AM4" s="239"/>
-      <c r="AN4" s="239"/>
-      <c r="AO4" s="239"/>
-      <c r="AP4" s="239"/>
-      <c r="AQ4" s="239"/>
-      <c r="AR4" s="239"/>
-      <c r="AS4" s="239"/>
-      <c r="AT4" s="239"/>
-      <c r="AU4" s="239"/>
-      <c r="AV4" s="239"/>
-      <c r="AW4" s="239"/>
-      <c r="AX4" s="239"/>
-      <c r="AY4" s="239"/>
-      <c r="AZ4" s="239"/>
-      <c r="BA4" s="239"/>
-      <c r="BB4" s="239"/>
-      <c r="BC4" s="239"/>
-      <c r="BD4" s="239"/>
-      <c r="BE4" s="239"/>
-      <c r="BF4" s="239"/>
-      <c r="BG4" s="239"/>
-      <c r="BH4" s="239"/>
-      <c r="BI4" s="239"/>
-      <c r="BJ4" s="239"/>
-      <c r="BK4" s="239"/>
-      <c r="BL4" s="239"/>
-      <c r="BM4" s="239"/>
-      <c r="BN4" s="239"/>
-      <c r="BO4" s="239"/>
-      <c r="BP4" s="239"/>
-      <c r="BQ4" s="239"/>
-      <c r="BR4" s="240"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="234"/>
+      <c r="X4" s="234"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="234"/>
+      <c r="AA4" s="234"/>
+      <c r="AB4" s="234"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="234"/>
+      <c r="AE4" s="234"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="234"/>
+      <c r="AI4" s="234"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="234"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="234"/>
+      <c r="AN4" s="234"/>
+      <c r="AO4" s="234"/>
+      <c r="AP4" s="234"/>
+      <c r="AQ4" s="234"/>
+      <c r="AR4" s="234"/>
+      <c r="AS4" s="234"/>
+      <c r="AT4" s="234"/>
+      <c r="AU4" s="234"/>
+      <c r="AV4" s="234"/>
+      <c r="AW4" s="234"/>
+      <c r="AX4" s="234"/>
+      <c r="AY4" s="234"/>
+      <c r="AZ4" s="234"/>
+      <c r="BA4" s="234"/>
+      <c r="BB4" s="234"/>
+      <c r="BC4" s="234"/>
+      <c r="BD4" s="234"/>
+      <c r="BE4" s="234"/>
+      <c r="BF4" s="234"/>
+      <c r="BG4" s="234"/>
+      <c r="BH4" s="234"/>
+      <c r="BI4" s="234"/>
+      <c r="BJ4" s="234"/>
+      <c r="BK4" s="234"/>
+      <c r="BL4" s="234"/>
+      <c r="BM4" s="234"/>
+      <c r="BN4" s="234"/>
+      <c r="BO4" s="234"/>
+      <c r="BP4" s="234"/>
+      <c r="BQ4" s="234"/>
+      <c r="BR4" s="235"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -16229,11 +16237,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="235">
+      <c r="D8" s="245">
         <v>45040</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="K8" s="196" t="s">
@@ -16242,179 +16250,179 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="O8" s="232" t="str">
+      <c r="O8" s="240" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="233"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="233"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="232" t="str">
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="240" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="233"/>
-      <c r="X8" s="233"/>
-      <c r="Y8" s="233"/>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="232" t="str">
+      <c r="W8" s="241"/>
+      <c r="X8" s="241"/>
+      <c r="Y8" s="241"/>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="240" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="233"/>
-      <c r="AE8" s="233"/>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="233"/>
-      <c r="AH8" s="233"/>
-      <c r="AI8" s="234"/>
-      <c r="AJ8" s="232" t="str">
+      <c r="AD8" s="241"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="242"/>
+      <c r="AJ8" s="240" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="233"/>
-      <c r="AL8" s="233"/>
-      <c r="AM8" s="233"/>
-      <c r="AN8" s="233"/>
-      <c r="AO8" s="233"/>
-      <c r="AP8" s="234"/>
-      <c r="AQ8" s="232" t="str">
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="241"/>
+      <c r="AM8" s="241"/>
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="242"/>
+      <c r="AQ8" s="240" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="233"/>
-      <c r="AT8" s="233"/>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="233"/>
-      <c r="AW8" s="234"/>
-      <c r="AX8" s="232" t="str">
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="241"/>
+      <c r="AT8" s="241"/>
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="242"/>
+      <c r="AX8" s="240" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="233"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="233"/>
-      <c r="BB8" s="233"/>
-      <c r="BC8" s="233"/>
-      <c r="BD8" s="234"/>
-      <c r="BE8" s="232" t="str">
+      <c r="AY8" s="241"/>
+      <c r="AZ8" s="241"/>
+      <c r="BA8" s="241"/>
+      <c r="BB8" s="241"/>
+      <c r="BC8" s="241"/>
+      <c r="BD8" s="242"/>
+      <c r="BE8" s="240" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="233"/>
-      <c r="BG8" s="233"/>
-      <c r="BH8" s="233"/>
-      <c r="BI8" s="233"/>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="234"/>
-      <c r="BL8" s="232" t="str">
+      <c r="BF8" s="241"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="241"/>
+      <c r="BI8" s="241"/>
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="242"/>
+      <c r="BL8" s="240" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="233"/>
-      <c r="BN8" s="233"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="233"/>
-      <c r="BQ8" s="233"/>
-      <c r="BR8" s="245"/>
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="241"/>
+      <c r="BO8" s="241"/>
+      <c r="BP8" s="241"/>
+      <c r="BQ8" s="241"/>
+      <c r="BR8" s="243"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="244" t="s">
         <v>1113</v>
       </c>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="O9" s="241">
+      <c r="O9" s="236">
         <f>O10</f>
         <v>45040</v>
       </c>
-      <c r="P9" s="242"/>
-      <c r="Q9" s="242"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="242"/>
-      <c r="T9" s="242"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="241">
+      <c r="P9" s="237"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="237"/>
+      <c r="S9" s="237"/>
+      <c r="T9" s="237"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="236">
         <f>V10</f>
         <v>45047</v>
       </c>
-      <c r="W9" s="242"/>
-      <c r="X9" s="242"/>
-      <c r="Y9" s="242"/>
-      <c r="Z9" s="242"/>
-      <c r="AA9" s="242"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="241">
+      <c r="W9" s="237"/>
+      <c r="X9" s="237"/>
+      <c r="Y9" s="237"/>
+      <c r="Z9" s="237"/>
+      <c r="AA9" s="237"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="236">
         <f>AC10</f>
         <v>45054</v>
       </c>
-      <c r="AD9" s="242"/>
-      <c r="AE9" s="242"/>
-      <c r="AF9" s="242"/>
-      <c r="AG9" s="242"/>
-      <c r="AH9" s="242"/>
-      <c r="AI9" s="243"/>
-      <c r="AJ9" s="241">
+      <c r="AD9" s="237"/>
+      <c r="AE9" s="237"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="237"/>
+      <c r="AH9" s="237"/>
+      <c r="AI9" s="238"/>
+      <c r="AJ9" s="236">
         <f>AJ10</f>
         <v>45061</v>
       </c>
-      <c r="AK9" s="242"/>
-      <c r="AL9" s="242"/>
-      <c r="AM9" s="242"/>
-      <c r="AN9" s="242"/>
-      <c r="AO9" s="242"/>
-      <c r="AP9" s="243"/>
-      <c r="AQ9" s="241">
+      <c r="AK9" s="237"/>
+      <c r="AL9" s="237"/>
+      <c r="AM9" s="237"/>
+      <c r="AN9" s="237"/>
+      <c r="AO9" s="237"/>
+      <c r="AP9" s="238"/>
+      <c r="AQ9" s="236">
         <f>AQ10</f>
         <v>45068</v>
       </c>
-      <c r="AR9" s="242"/>
-      <c r="AS9" s="242"/>
-      <c r="AT9" s="242"/>
-      <c r="AU9" s="242"/>
-      <c r="AV9" s="242"/>
-      <c r="AW9" s="243"/>
-      <c r="AX9" s="241">
+      <c r="AR9" s="237"/>
+      <c r="AS9" s="237"/>
+      <c r="AT9" s="237"/>
+      <c r="AU9" s="237"/>
+      <c r="AV9" s="237"/>
+      <c r="AW9" s="238"/>
+      <c r="AX9" s="236">
         <f>AX10</f>
         <v>45075</v>
       </c>
-      <c r="AY9" s="242"/>
-      <c r="AZ9" s="242"/>
-      <c r="BA9" s="242"/>
-      <c r="BB9" s="242"/>
-      <c r="BC9" s="242"/>
-      <c r="BD9" s="243"/>
-      <c r="BE9" s="241">
+      <c r="AY9" s="237"/>
+      <c r="AZ9" s="237"/>
+      <c r="BA9" s="237"/>
+      <c r="BB9" s="237"/>
+      <c r="BC9" s="237"/>
+      <c r="BD9" s="238"/>
+      <c r="BE9" s="236">
         <f>BE10</f>
         <v>45082</v>
       </c>
-      <c r="BF9" s="242"/>
-      <c r="BG9" s="242"/>
-      <c r="BH9" s="242"/>
-      <c r="BI9" s="242"/>
-      <c r="BJ9" s="242"/>
-      <c r="BK9" s="243"/>
-      <c r="BL9" s="241">
+      <c r="BF9" s="237"/>
+      <c r="BG9" s="237"/>
+      <c r="BH9" s="237"/>
+      <c r="BI9" s="237"/>
+      <c r="BJ9" s="237"/>
+      <c r="BK9" s="238"/>
+      <c r="BL9" s="236">
         <f>BL10</f>
         <v>45089</v>
       </c>
-      <c r="BM9" s="242"/>
-      <c r="BN9" s="242"/>
-      <c r="BO9" s="242"/>
-      <c r="BP9" s="242"/>
-      <c r="BQ9" s="242"/>
-      <c r="BR9" s="244"/>
+      <c r="BM9" s="237"/>
+      <c r="BN9" s="237"/>
+      <c r="BO9" s="237"/>
+      <c r="BP9" s="237"/>
+      <c r="BQ9" s="237"/>
+      <c r="BR9" s="239"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="33">
@@ -16908,7 +16916,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:70" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="12" spans="1:70" s="165" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A12" s="147" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -16997,7 +17005,7 @@
       <c r="BQ12" s="157"/>
       <c r="BR12" s="185"/>
     </row>
-    <row r="13" spans="1:70" s="87" customFormat="1" ht="51">
+    <row r="13" spans="1:70" s="87" customFormat="1" ht="51" hidden="1">
       <c r="A13" s="146" t="str">
         <f t="shared" ref="A13:A45" si="45">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -17094,7 +17102,7 @@
       <c r="BQ13" s="59"/>
       <c r="BR13" s="188"/>
     </row>
-    <row r="14" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A14" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.2</v>
@@ -17191,7 +17199,7 @@
       <c r="BQ14" s="59"/>
       <c r="BR14" s="188"/>
     </row>
-    <row r="15" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A15" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.3</v>
@@ -17288,7 +17296,7 @@
       <c r="BQ15" s="59"/>
       <c r="BR15" s="188"/>
     </row>
-    <row r="16" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A16" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.4</v>
@@ -17385,7 +17393,7 @@
       <c r="BQ16" s="47"/>
       <c r="BR16" s="186"/>
     </row>
-    <row r="17" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A17" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.5</v>
@@ -17482,7 +17490,7 @@
       <c r="BQ17" s="137"/>
       <c r="BR17" s="187"/>
     </row>
-    <row r="18" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.6</v>
@@ -17579,7 +17587,7 @@
       <c r="BQ18" s="59"/>
       <c r="BR18" s="188"/>
     </row>
-    <row r="19" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.7</v>
@@ -17676,7 +17684,7 @@
       <c r="BQ19" s="47"/>
       <c r="BR19" s="186"/>
     </row>
-    <row r="20" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A20" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.8</v>
@@ -17773,7 +17781,7 @@
       <c r="BQ20" s="137"/>
       <c r="BR20" s="187"/>
     </row>
-    <row r="21" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A21" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.9</v>
@@ -18161,7 +18169,7 @@
       <c r="BQ24" s="59"/>
       <c r="BR24" s="188"/>
     </row>
-    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A25" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.13</v>
@@ -18258,7 +18266,7 @@
       <c r="BQ25" s="59"/>
       <c r="BR25" s="188"/>
     </row>
-    <row r="26" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A26" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.14</v>
@@ -18355,7 +18363,7 @@
       <c r="BQ26" s="59"/>
       <c r="BR26" s="188"/>
     </row>
-    <row r="27" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.15</v>
@@ -18452,7 +18460,7 @@
       <c r="BQ27" s="59"/>
       <c r="BR27" s="188"/>
     </row>
-    <row r="28" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="28" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A28" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.16</v>
@@ -18549,7 +18557,7 @@
       <c r="BQ28" s="59"/>
       <c r="BR28" s="188"/>
     </row>
-    <row r="29" spans="1:70" s="166" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:70" s="166" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A29" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -18638,7 +18646,7 @@
       <c r="BQ29" s="85"/>
       <c r="BR29" s="190"/>
     </row>
-    <row r="30" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.1</v>
@@ -18735,7 +18743,7 @@
       <c r="BQ30" s="47"/>
       <c r="BR30" s="186"/>
     </row>
-    <row r="31" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A31" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.2</v>
@@ -18832,7 +18840,7 @@
       <c r="BQ31" s="47"/>
       <c r="BR31" s="186"/>
     </row>
-    <row r="32" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.3</v>
@@ -18850,7 +18858,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="G32" s="142" t="s">
         <v>35</v>
@@ -18929,7 +18937,7 @@
       <c r="BQ32" s="47"/>
       <c r="BR32" s="186"/>
     </row>
-    <row r="33" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A33" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.4</v>
@@ -19026,7 +19034,7 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="186"/>
     </row>
-    <row r="34" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A34" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.5</v>
@@ -19123,7 +19131,7 @@
       <c r="BQ34" s="47"/>
       <c r="BR34" s="186"/>
     </row>
-    <row r="35" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A35" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.6</v>
@@ -19220,7 +19228,7 @@
       <c r="BQ35" s="47"/>
       <c r="BR35" s="186"/>
     </row>
-    <row r="36" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A36" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.7</v>
@@ -19317,7 +19325,7 @@
       <c r="BQ36" s="47"/>
       <c r="BR36" s="186"/>
     </row>
-    <row r="37" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="37" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A37" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.8</v>
@@ -19414,7 +19422,7 @@
       <c r="BQ37" s="47"/>
       <c r="BR37" s="186"/>
     </row>
-    <row r="38" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A38" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.9</v>
@@ -19511,7 +19519,7 @@
       <c r="BQ38" s="47"/>
       <c r="BR38" s="186"/>
     </row>
-    <row r="39" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A39" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.10</v>
@@ -19608,7 +19616,7 @@
       <c r="BQ39" s="47"/>
       <c r="BR39" s="186"/>
     </row>
-    <row r="40" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="40" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.11</v>
@@ -19705,7 +19713,7 @@
       <c r="BQ40" s="49"/>
       <c r="BR40" s="189"/>
     </row>
-    <row r="41" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A41" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.12</v>
@@ -19802,7 +19810,7 @@
       <c r="BQ41" s="47"/>
       <c r="BR41" s="186"/>
     </row>
-    <row r="42" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="42" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A42" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.13</v>
@@ -19899,7 +19907,7 @@
       <c r="BQ42" s="47"/>
       <c r="BR42" s="186"/>
     </row>
-    <row r="43" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="43" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A43" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.14</v>
@@ -19996,7 +20004,7 @@
       <c r="BQ43" s="47"/>
       <c r="BR43" s="186"/>
     </row>
-    <row r="44" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="44" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A44" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.15</v>
@@ -20093,7 +20101,7 @@
       <c r="BQ44" s="47"/>
       <c r="BR44" s="186"/>
     </row>
-    <row r="45" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="45" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.16</v>
@@ -20190,7 +20198,7 @@
       <c r="BQ45" s="47"/>
       <c r="BR45" s="186"/>
     </row>
-    <row r="46" spans="1:70" s="167" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="46" spans="1:70" s="167" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A46" s="68" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -20279,7 +20287,7 @@
       <c r="BQ46" s="86"/>
       <c r="BR46" s="191"/>
     </row>
-    <row r="47" spans="1:70" s="87" customFormat="1" ht="25.5">
+    <row r="47" spans="1:70" s="87" customFormat="1" ht="26.25" hidden="1" thickBot="1">
       <c r="A47" s="146" t="str">
         <f t="shared" ref="A47:A51" si="57">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -20376,7 +20384,7 @@
       <c r="BQ47" s="47"/>
       <c r="BR47" s="186"/>
     </row>
-    <row r="48" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A48" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.2</v>
@@ -20394,7 +20402,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G48" s="142" t="s">
         <v>35</v>
@@ -20473,7 +20481,7 @@
       <c r="BQ48" s="47"/>
       <c r="BR48" s="186"/>
     </row>
-    <row r="49" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="49" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A49" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.3</v>
@@ -20570,7 +20578,7 @@
       <c r="BQ49" s="47"/>
       <c r="BR49" s="186"/>
     </row>
-    <row r="50" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="50" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A50" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.4</v>
@@ -20588,7 +20596,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G50" s="142" t="s">
         <v>35</v>
@@ -20667,7 +20675,7 @@
       <c r="BQ50" s="47"/>
       <c r="BR50" s="186"/>
     </row>
-    <row r="51" spans="1:70" s="87" customFormat="1" ht="39" thickBot="1">
+    <row r="51" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A51" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.5</v>
@@ -20764,7 +20772,7 @@
       <c r="BQ51" s="47"/>
       <c r="BR51" s="186"/>
     </row>
-    <row r="52" spans="1:70" s="167" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="52" spans="1:70" s="167" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="68" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -20853,7 +20861,7 @@
       <c r="BQ52" s="86"/>
       <c r="BR52" s="191"/>
     </row>
-    <row r="53" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="53" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A53" s="145" t="str">
         <f t="shared" ref="A53:A59" si="63">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -20950,7 +20958,7 @@
       <c r="BQ53" s="47"/>
       <c r="BR53" s="186"/>
     </row>
-    <row r="54" spans="1:70" s="87" customFormat="1" ht="76.5" customHeight="1">
+    <row r="54" spans="1:70" s="87" customFormat="1" ht="76.5" hidden="1" customHeight="1">
       <c r="A54" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.2</v>
@@ -21047,7 +21055,7 @@
       <c r="BQ54" s="47"/>
       <c r="BR54" s="186"/>
     </row>
-    <row r="55" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="55" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A55" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.3</v>
@@ -21144,7 +21152,7 @@
       <c r="BQ55" s="47"/>
       <c r="BR55" s="186"/>
     </row>
-    <row r="56" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="56" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
       <c r="A56" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.4</v>
@@ -21241,7 +21249,7 @@
       <c r="BQ56" s="47"/>
       <c r="BR56" s="186"/>
     </row>
-    <row r="57" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="57" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A57" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.5</v>
@@ -21338,7 +21346,7 @@
       <c r="BQ57" s="47"/>
       <c r="BR57" s="186"/>
     </row>
-    <row r="58" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="58" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A58" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.6</v>
@@ -21435,7 +21443,7 @@
       <c r="BQ58" s="47"/>
       <c r="BR58" s="186"/>
     </row>
-    <row r="59" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A59" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.7</v>
@@ -21606,8 +21614,20 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="220501093"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="22">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -21624,12 +21644,6 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L21:L22">
     <cfRule type="dataBar" priority="116">
@@ -22368,59 +22382,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22468,59 +22482,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22568,59 +22582,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22668,59 +22682,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>

--- a/00_ruta/adso_cronograma_228118_V1.xlsx
+++ b/00_ruta/adso_cronograma_228118_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBD62F2-85D9-4403-909C-375702B75417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE08E7A-D4A3-45DE-88D3-5FE76D3533D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
   </bookViews>
@@ -5822,24 +5822,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5849,7 +5886,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5860,83 +5896,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5946,16 +5922,40 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6150,7 +6150,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57322</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>259367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6829,91 +6829,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="198" t="s">
         <v>1131</v>
       </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="221" t="s">
+      <c r="C11" s="208" t="s">
         <v>1128</v>
       </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="211" t="s">
         <v>1132</v>
       </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="225"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="213"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="198" t="s">
+      <c r="C14" s="211" t="s">
         <v>1133</v>
       </c>
-      <c r="D14" s="199"/>
+      <c r="D14" s="226"/>
       <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
@@ -6925,10 +6925,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="227" t="s">
+      <c r="C15" s="215" t="s">
         <v>1129</v>
       </c>
-      <c r="D15" s="228"/>
+      <c r="D15" s="216"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
@@ -6940,10 +6940,10 @@
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="229" t="s">
+      <c r="C16" s="217" t="s">
         <v>1133</v>
       </c>
-      <c r="D16" s="230"/>
+      <c r="D16" s="218"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -6953,8 +6953,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -6973,10 +6973,10 @@
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="219"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="17" t="s">
         <v>16</v>
       </c>
@@ -6988,10 +6988,10 @@
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="220" t="s">
+      <c r="D22" s="206" t="s">
         <v>1133</v>
       </c>
-      <c r="E22" s="220"/>
+      <c r="E22" s="206"/>
       <c r="F22" s="20" t="s">
         <v>1130</v>
       </c>
@@ -7048,8 +7048,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -7060,53 +7060,53 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="211"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="225"/>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="201" t="s">
         <v>1133</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="203"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="230"/>
       <c r="J36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="201"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="203"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="230"/>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="230"/>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="204"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="206"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="221"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -7267,6 +7267,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -7283,18 +7295,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -15810,8 +15810,8 @@
   <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="11" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -15833,296 +15833,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="231"/>
-      <c r="AI1" s="231"/>
-      <c r="AJ1" s="231"/>
-      <c r="AK1" s="231"/>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="231"/>
-      <c r="AN1" s="231"/>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="231"/>
-      <c r="AR1" s="231"/>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="231"/>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="231"/>
-      <c r="BI1" s="231"/>
-      <c r="BJ1" s="231"/>
-      <c r="BK1" s="231"/>
-      <c r="BL1" s="231"/>
-      <c r="BM1" s="231"/>
-      <c r="BN1" s="231"/>
-      <c r="BO1" s="231"/>
-      <c r="BP1" s="231"/>
-      <c r="BQ1" s="231"/>
-      <c r="BR1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236"/>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="236"/>
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="236"/>
+      <c r="BC1" s="236"/>
+      <c r="BD1" s="236"/>
+      <c r="BE1" s="236"/>
+      <c r="BF1" s="236"/>
+      <c r="BG1" s="236"/>
+      <c r="BH1" s="236"/>
+      <c r="BI1" s="236"/>
+      <c r="BJ1" s="236"/>
+      <c r="BK1" s="236"/>
+      <c r="BL1" s="236"/>
+      <c r="BM1" s="236"/>
+      <c r="BN1" s="236"/>
+      <c r="BO1" s="236"/>
+      <c r="BP1" s="236"/>
+      <c r="BQ1" s="236"/>
+      <c r="BR1" s="236"/>
     </row>
     <row r="2" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="232"/>
-      <c r="AY2" s="232"/>
-      <c r="AZ2" s="232"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="232"/>
-      <c r="BC2" s="232"/>
-      <c r="BD2" s="232"/>
-      <c r="BE2" s="232"/>
-      <c r="BF2" s="232"/>
-      <c r="BG2" s="232"/>
-      <c r="BH2" s="232"/>
-      <c r="BI2" s="232"/>
-      <c r="BJ2" s="232"/>
-      <c r="BK2" s="232"/>
-      <c r="BL2" s="232"/>
-      <c r="BM2" s="232"/>
-      <c r="BN2" s="232"/>
-      <c r="BO2" s="232"/>
-      <c r="BP2" s="232"/>
-      <c r="BQ2" s="232"/>
-      <c r="BR2" s="233"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="237"/>
+      <c r="AL2" s="237"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="237"/>
+      <c r="AO2" s="237"/>
+      <c r="AP2" s="237"/>
+      <c r="AQ2" s="237"/>
+      <c r="AR2" s="237"/>
+      <c r="AS2" s="237"/>
+      <c r="AT2" s="237"/>
+      <c r="AU2" s="237"/>
+      <c r="AV2" s="237"/>
+      <c r="AW2" s="237"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="237"/>
+      <c r="AZ2" s="237"/>
+      <c r="BA2" s="237"/>
+      <c r="BB2" s="237"/>
+      <c r="BC2" s="237"/>
+      <c r="BD2" s="237"/>
+      <c r="BE2" s="237"/>
+      <c r="BF2" s="237"/>
+      <c r="BG2" s="237"/>
+      <c r="BH2" s="237"/>
+      <c r="BI2" s="237"/>
+      <c r="BJ2" s="237"/>
+      <c r="BK2" s="237"/>
+      <c r="BL2" s="237"/>
+      <c r="BM2" s="237"/>
+      <c r="BN2" s="237"/>
+      <c r="BO2" s="237"/>
+      <c r="BP2" s="237"/>
+      <c r="BQ2" s="237"/>
+      <c r="BR2" s="238"/>
     </row>
     <row r="3" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="232"/>
-      <c r="AZ3" s="232"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="232"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="232"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="232"/>
-      <c r="BG3" s="232"/>
-      <c r="BH3" s="232"/>
-      <c r="BI3" s="232"/>
-      <c r="BJ3" s="232"/>
-      <c r="BK3" s="232"/>
-      <c r="BL3" s="232"/>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="233"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="237"/>
+      <c r="AJ3" s="237"/>
+      <c r="AK3" s="237"/>
+      <c r="AL3" s="237"/>
+      <c r="AM3" s="237"/>
+      <c r="AN3" s="237"/>
+      <c r="AO3" s="237"/>
+      <c r="AP3" s="237"/>
+      <c r="AQ3" s="237"/>
+      <c r="AR3" s="237"/>
+      <c r="AS3" s="237"/>
+      <c r="AT3" s="237"/>
+      <c r="AU3" s="237"/>
+      <c r="AV3" s="237"/>
+      <c r="AW3" s="237"/>
+      <c r="AX3" s="237"/>
+      <c r="AY3" s="237"/>
+      <c r="AZ3" s="237"/>
+      <c r="BA3" s="237"/>
+      <c r="BB3" s="237"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="237"/>
+      <c r="BH3" s="237"/>
+      <c r="BI3" s="237"/>
+      <c r="BJ3" s="237"/>
+      <c r="BK3" s="237"/>
+      <c r="BL3" s="237"/>
+      <c r="BM3" s="237"/>
+      <c r="BN3" s="237"/>
+      <c r="BO3" s="237"/>
+      <c r="BP3" s="237"/>
+      <c r="BQ3" s="237"/>
+      <c r="BR3" s="238"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
-      <c r="U4" s="234"/>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="234"/>
-      <c r="AI4" s="234"/>
-      <c r="AJ4" s="234"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="234"/>
-      <c r="AN4" s="234"/>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="234"/>
-      <c r="AU4" s="234"/>
-      <c r="AV4" s="234"/>
-      <c r="AW4" s="234"/>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="234"/>
-      <c r="AZ4" s="234"/>
-      <c r="BA4" s="234"/>
-      <c r="BB4" s="234"/>
-      <c r="BC4" s="234"/>
-      <c r="BD4" s="234"/>
-      <c r="BE4" s="234"/>
-      <c r="BF4" s="234"/>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="234"/>
-      <c r="BI4" s="234"/>
-      <c r="BJ4" s="234"/>
-      <c r="BK4" s="234"/>
-      <c r="BL4" s="234"/>
-      <c r="BM4" s="234"/>
-      <c r="BN4" s="234"/>
-      <c r="BO4" s="234"/>
-      <c r="BP4" s="234"/>
-      <c r="BQ4" s="234"/>
-      <c r="BR4" s="235"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="239"/>
+      <c r="Y4" s="239"/>
+      <c r="Z4" s="239"/>
+      <c r="AA4" s="239"/>
+      <c r="AB4" s="239"/>
+      <c r="AC4" s="239"/>
+      <c r="AD4" s="239"/>
+      <c r="AE4" s="239"/>
+      <c r="AF4" s="239"/>
+      <c r="AG4" s="239"/>
+      <c r="AH4" s="239"/>
+      <c r="AI4" s="239"/>
+      <c r="AJ4" s="239"/>
+      <c r="AK4" s="239"/>
+      <c r="AL4" s="239"/>
+      <c r="AM4" s="239"/>
+      <c r="AN4" s="239"/>
+      <c r="AO4" s="239"/>
+      <c r="AP4" s="239"/>
+      <c r="AQ4" s="239"/>
+      <c r="AR4" s="239"/>
+      <c r="AS4" s="239"/>
+      <c r="AT4" s="239"/>
+      <c r="AU4" s="239"/>
+      <c r="AV4" s="239"/>
+      <c r="AW4" s="239"/>
+      <c r="AX4" s="239"/>
+      <c r="AY4" s="239"/>
+      <c r="AZ4" s="239"/>
+      <c r="BA4" s="239"/>
+      <c r="BB4" s="239"/>
+      <c r="BC4" s="239"/>
+      <c r="BD4" s="239"/>
+      <c r="BE4" s="239"/>
+      <c r="BF4" s="239"/>
+      <c r="BG4" s="239"/>
+      <c r="BH4" s="239"/>
+      <c r="BI4" s="239"/>
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="239"/>
+      <c r="BL4" s="239"/>
+      <c r="BM4" s="239"/>
+      <c r="BN4" s="239"/>
+      <c r="BO4" s="239"/>
+      <c r="BP4" s="239"/>
+      <c r="BQ4" s="239"/>
+      <c r="BR4" s="240"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -16237,11 +16237,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="245">
+      <c r="D8" s="235">
         <v>45040</v>
       </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="K8" s="196" t="s">
@@ -16250,179 +16250,179 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="O8" s="240" t="str">
+      <c r="O8" s="232" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="240" t="str">
+      <c r="P8" s="233"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="232" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="240" t="str">
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="234"/>
+      <c r="AC8" s="232" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="242"/>
-      <c r="AJ8" s="240" t="str">
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="233"/>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="232" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="242"/>
-      <c r="AQ8" s="240" t="str">
+      <c r="AK8" s="233"/>
+      <c r="AL8" s="233"/>
+      <c r="AM8" s="233"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="234"/>
+      <c r="AQ8" s="232" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="241"/>
-      <c r="AS8" s="241"/>
-      <c r="AT8" s="241"/>
-      <c r="AU8" s="241"/>
-      <c r="AV8" s="241"/>
-      <c r="AW8" s="242"/>
-      <c r="AX8" s="240" t="str">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="233"/>
+      <c r="AT8" s="233"/>
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="233"/>
+      <c r="AW8" s="234"/>
+      <c r="AX8" s="232" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="241"/>
-      <c r="AZ8" s="241"/>
-      <c r="BA8" s="241"/>
-      <c r="BB8" s="241"/>
-      <c r="BC8" s="241"/>
-      <c r="BD8" s="242"/>
-      <c r="BE8" s="240" t="str">
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="233"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="234"/>
+      <c r="BE8" s="232" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="241"/>
-      <c r="BG8" s="241"/>
-      <c r="BH8" s="241"/>
-      <c r="BI8" s="241"/>
-      <c r="BJ8" s="241"/>
-      <c r="BK8" s="242"/>
-      <c r="BL8" s="240" t="str">
+      <c r="BF8" s="233"/>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="233"/>
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="234"/>
+      <c r="BL8" s="232" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="241"/>
-      <c r="BN8" s="241"/>
-      <c r="BO8" s="241"/>
-      <c r="BP8" s="241"/>
-      <c r="BQ8" s="241"/>
-      <c r="BR8" s="243"/>
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="233"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="233"/>
+      <c r="BQ8" s="233"/>
+      <c r="BR8" s="245"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="231" t="s">
         <v>1113</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="O9" s="236">
+      <c r="O9" s="241">
         <f>O10</f>
         <v>45040</v>
       </c>
-      <c r="P9" s="237"/>
-      <c r="Q9" s="237"/>
-      <c r="R9" s="237"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="237"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="236">
+      <c r="P9" s="242"/>
+      <c r="Q9" s="242"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="241">
         <f>V10</f>
         <v>45047</v>
       </c>
-      <c r="W9" s="237"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="237"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="236">
+      <c r="W9" s="242"/>
+      <c r="X9" s="242"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="241">
         <f>AC10</f>
         <v>45054</v>
       </c>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="237"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="237"/>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="238"/>
-      <c r="AJ9" s="236">
+      <c r="AD9" s="242"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="242"/>
+      <c r="AG9" s="242"/>
+      <c r="AH9" s="242"/>
+      <c r="AI9" s="243"/>
+      <c r="AJ9" s="241">
         <f>AJ10</f>
         <v>45061</v>
       </c>
-      <c r="AK9" s="237"/>
-      <c r="AL9" s="237"/>
-      <c r="AM9" s="237"/>
-      <c r="AN9" s="237"/>
-      <c r="AO9" s="237"/>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="236">
+      <c r="AK9" s="242"/>
+      <c r="AL9" s="242"/>
+      <c r="AM9" s="242"/>
+      <c r="AN9" s="242"/>
+      <c r="AO9" s="242"/>
+      <c r="AP9" s="243"/>
+      <c r="AQ9" s="241">
         <f>AQ10</f>
         <v>45068</v>
       </c>
-      <c r="AR9" s="237"/>
-      <c r="AS9" s="237"/>
-      <c r="AT9" s="237"/>
-      <c r="AU9" s="237"/>
-      <c r="AV9" s="237"/>
-      <c r="AW9" s="238"/>
-      <c r="AX9" s="236">
+      <c r="AR9" s="242"/>
+      <c r="AS9" s="242"/>
+      <c r="AT9" s="242"/>
+      <c r="AU9" s="242"/>
+      <c r="AV9" s="242"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="241">
         <f>AX10</f>
         <v>45075</v>
       </c>
-      <c r="AY9" s="237"/>
-      <c r="AZ9" s="237"/>
-      <c r="BA9" s="237"/>
-      <c r="BB9" s="237"/>
-      <c r="BC9" s="237"/>
-      <c r="BD9" s="238"/>
-      <c r="BE9" s="236">
+      <c r="AY9" s="242"/>
+      <c r="AZ9" s="242"/>
+      <c r="BA9" s="242"/>
+      <c r="BB9" s="242"/>
+      <c r="BC9" s="242"/>
+      <c r="BD9" s="243"/>
+      <c r="BE9" s="241">
         <f>BE10</f>
         <v>45082</v>
       </c>
-      <c r="BF9" s="237"/>
-      <c r="BG9" s="237"/>
-      <c r="BH9" s="237"/>
-      <c r="BI9" s="237"/>
-      <c r="BJ9" s="237"/>
-      <c r="BK9" s="238"/>
-      <c r="BL9" s="236">
+      <c r="BF9" s="242"/>
+      <c r="BG9" s="242"/>
+      <c r="BH9" s="242"/>
+      <c r="BI9" s="242"/>
+      <c r="BJ9" s="242"/>
+      <c r="BK9" s="243"/>
+      <c r="BL9" s="241">
         <f>BL10</f>
         <v>45089</v>
       </c>
-      <c r="BM9" s="237"/>
-      <c r="BN9" s="237"/>
-      <c r="BO9" s="237"/>
-      <c r="BP9" s="237"/>
-      <c r="BQ9" s="237"/>
-      <c r="BR9" s="239"/>
+      <c r="BM9" s="242"/>
+      <c r="BN9" s="242"/>
+      <c r="BO9" s="242"/>
+      <c r="BP9" s="242"/>
+      <c r="BQ9" s="242"/>
+      <c r="BR9" s="244"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="33">
@@ -17878,7 +17878,7 @@
       <c r="BQ21" s="47"/>
       <c r="BR21" s="186"/>
     </row>
-    <row r="22" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.10</v>
@@ -17975,7 +17975,7 @@
       <c r="BQ22" s="47"/>
       <c r="BR22" s="186"/>
     </row>
-    <row r="23" spans="1:70" s="87" customFormat="1" ht="63.75">
+    <row r="23" spans="1:70" s="87" customFormat="1" ht="63.75" hidden="1">
       <c r="A23" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.11</v>
@@ -18072,7 +18072,7 @@
       <c r="BQ23" s="47"/>
       <c r="BR23" s="186"/>
     </row>
-    <row r="24" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="A24" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.12</v>
@@ -18169,7 +18169,7 @@
       <c r="BQ24" s="59"/>
       <c r="BR24" s="188"/>
     </row>
-    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.13</v>
@@ -19810,7 +19810,7 @@
       <c r="BQ41" s="47"/>
       <c r="BR41" s="186"/>
     </row>
-    <row r="42" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="42" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A42" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.13</v>
@@ -19907,7 +19907,7 @@
       <c r="BQ42" s="47"/>
       <c r="BR42" s="186"/>
     </row>
-    <row r="43" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="43" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A43" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.14</v>
@@ -20004,7 +20004,7 @@
       <c r="BQ43" s="47"/>
       <c r="BR43" s="186"/>
     </row>
-    <row r="44" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="44" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A44" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.15</v>
@@ -20101,7 +20101,7 @@
       <c r="BQ44" s="47"/>
       <c r="BR44" s="186"/>
     </row>
-    <row r="45" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="45" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A45" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.16</v>
@@ -21617,17 +21617,11 @@
   <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="220501093"/>
+        <filter val="220501095"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="22">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -21644,6 +21638,12 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L21:L22">
     <cfRule type="dataBar" priority="116">
@@ -22382,59 +22382,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22482,59 +22482,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22582,59 +22582,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22682,59 +22682,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>

--- a/00_ruta/adso_cronograma_228118_V1.xlsx
+++ b/00_ruta/adso_cronograma_228118_V1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE08E7A-D4A3-45DE-88D3-5FE76D3533D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27C709A-1BFA-4E79-9158-62DE889AC498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
   </bookViews>
@@ -3549,29 +3549,69 @@
 Políticas de Seguridad de Datos</t>
   </si>
   <si>
+    <t>Documento Especificación de Arquitectura I:
+ArqSoft, PatrDis, Len(s), FraWork, lib y plat</t>
+  </si>
+  <si>
+    <t>Documento Especificación de Arquitectura II:
+Herramientas de desarrollo y versionamiento</t>
+  </si>
+  <si>
+    <t>Plan de: Pruebas Maestro, casos de prueba, unitarias, integración, sistema.
+Informe de ejecución de pruebas de software.</t>
+  </si>
+  <si>
+    <t>Plan de capacitación
+Plan de pruebas de aceptación
+Acta de entrega de software</t>
+  </si>
+  <si>
+    <t>Informe de evaluación de la calidad de software</t>
+  </si>
+  <si>
+    <t>Plan (Modelos y/o estándares) de 
+Aseguramiento de calidad de software (SQA)</t>
+  </si>
+  <si>
+    <t>Plan de auditoría de software con acciones correctivas, preventivas y de mejoramiento</t>
+  </si>
+  <si>
+    <t>Evidencias sobre:
+- Bienestar del Aprendiz
+- Dinámica Organizacional
+- Metodologías y Medios</t>
+  </si>
+  <si>
+    <t>Codificación Mod-Usuario_RF (PE_POO)</t>
+  </si>
+  <si>
+    <t>Base de datos SQL o NoSQL, consultas y automatizacion</t>
+  </si>
+  <si>
+    <t>Alcance (software): Arquitectura, patrón de diseño, lenguajes, frameworks, librerías, etc.</t>
+  </si>
+  <si>
+    <t>Modelo de dominio del Sistema
+Diagrama de casos de uso
+Casos de uso extendido
+Diagrama de actividades
+Modelo Entidad Relación</t>
+  </si>
+  <si>
     <t>Manual Identidad Corporativa
 Mapa de Navegación
-Mockups stand-alone, web y móvil</t>
-  </si>
-  <si>
-    <t>Documento Especificación de Arquitectura I:
-ArqSoft, PatrDis, Len(s), FraWork, lib y plat</t>
-  </si>
-  <si>
-    <t>Documento Especificación de Arquitectura II:
-Herramientas de desarrollo y versionamiento</t>
-  </si>
-  <si>
-    <t>Guía de Estilos
+Mockups stand-alone, web y móvil
+Guía de Estilos
 Prototipo No Funcional</t>
   </si>
   <si>
-    <t>Plan de migración de datos
-Plan de respaldo de datos
-Plan de instalación en servidor externo</t>
-  </si>
-  <si>
-    <t>Configurar servicios, servidores y permisos
+    <t>Frontend framework js (angular, react o vue)</t>
+  </si>
+  <si>
+    <t>Desarrollar Software: Web y Móvil</t>
+  </si>
+  <si>
+    <t>Configurar servidores, servicios y permisos
 Ejecutar scripts de instalación
 Crear usuarios, roles y permisos
 Migrar datos y archivos
@@ -3579,54 +3619,14 @@
 Pruebas de funcionalidad (Casos de Prueba)</t>
   </si>
   <si>
-    <t>Plan de Mantenimiento y Soporte
-Manual Técnico
-Manual de Usuario</t>
-  </si>
-  <si>
-    <t>Plan de: Pruebas Maestro, casos de prueba, unitarias, integración, sistema.
-Informe de ejecución de pruebas de software.</t>
-  </si>
-  <si>
-    <t>Plan de capacitación
-Plan de pruebas de aceptación
-Acta de entrega de software</t>
-  </si>
-  <si>
-    <t>Informe de evaluación de la calidad de software</t>
-  </si>
-  <si>
-    <t>Plan (Modelos y/o estándares) de 
-Aseguramiento de calidad de software (SQA)</t>
-  </si>
-  <si>
-    <t>Plan de auditoría de software con acciones correctivas, preventivas y de mejoramiento</t>
-  </si>
-  <si>
-    <t>Evidencias sobre:
-- Bienestar del Aprendiz
-- Dinámica Organizacional
-- Metodologías y Medios</t>
-  </si>
-  <si>
-    <t>Codificación Mod-Usuario_RF (PE_POO)</t>
-  </si>
-  <si>
-    <t>Base de datos SQL o NoSQL, consultas y automatizacion</t>
-  </si>
-  <si>
-    <t>Servidor de Aplicaciones Web
-Desarrollar Software: Web y Móvil</t>
-  </si>
-  <si>
-    <t>Alcance (software): Arquitectura, patrón de diseño, lenguajes, frameworks, librerías, etc.</t>
-  </si>
-  <si>
-    <t>Modelo de dominio del Sistema
-Diagrama de casos de uso
-Casos de uso extendido
-Diagrama de actividades
-Modelo Entidad Relación</t>
+    <t>Plan de instalación en servidor externo
+Plan de migración de datos
+Plan de respaldo de datos</t>
+  </si>
+  <si>
+    <t>Manual Técnico
+Manual de Usuario
+Plan de Mantenimiento y Soporte</t>
   </si>
 </sst>
 </file>
@@ -5822,6 +5822,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5847,7 +5885,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5857,9 +5894,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5877,85 +5911,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6150,7 +6150,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57322</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>259367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6829,91 +6829,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="212" t="s">
         <v>1131</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="221" t="s">
         <v>1128</v>
       </c>
-      <c r="D11" s="209"/>
-      <c r="E11" s="209"/>
-      <c r="F11" s="210"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="211" t="s">
+      <c r="C12" s="198" t="s">
         <v>1132</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="213"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="225"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="212"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="213"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="225"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="211" t="s">
+      <c r="C14" s="198" t="s">
         <v>1133</v>
       </c>
-      <c r="D14" s="226"/>
+      <c r="D14" s="199"/>
       <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
@@ -6925,10 +6925,10 @@
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="215" t="s">
+      <c r="C15" s="227" t="s">
         <v>1129</v>
       </c>
-      <c r="D15" s="216"/>
+      <c r="D15" s="228"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
@@ -6940,10 +6940,10 @@
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="217" t="s">
+      <c r="C16" s="229" t="s">
         <v>1133</v>
       </c>
-      <c r="D16" s="218"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -6953,8 +6953,8 @@
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
@@ -6973,10 +6973,10 @@
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="205" t="s">
+      <c r="D21" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="205"/>
+      <c r="E21" s="219"/>
       <c r="F21" s="17" t="s">
         <v>16</v>
       </c>
@@ -6988,10 +6988,10 @@
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="206" t="s">
+      <c r="D22" s="220" t="s">
         <v>1133</v>
       </c>
-      <c r="E22" s="206"/>
+      <c r="E22" s="220"/>
       <c r="F22" s="20" t="s">
         <v>1130</v>
       </c>
@@ -7048,8 +7048,8 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="208"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
@@ -7060,53 +7060,53 @@
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="225"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="211"/>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="201" t="s">
+      <c r="B35" s="215" t="s">
         <v>1133</v>
       </c>
-      <c r="C35" s="202"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="228"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="230"/>
+      <c r="B36" s="201"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
+      <c r="E36" s="202"/>
+      <c r="F36" s="203"/>
       <c r="J36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="228"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="230"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="202"/>
+      <c r="F37" s="203"/>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="228"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="230"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="203"/>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="219"/>
-      <c r="C39" s="220"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="221"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="206"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
@@ -7267,18 +7267,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -7295,6 +7283,18 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -15806,12 +15806,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BR60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -15833,296 +15832,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="236"/>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="236"/>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="236"/>
-      <c r="AD1" s="236"/>
-      <c r="AE1" s="236"/>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="236"/>
-      <c r="AI1" s="236"/>
-      <c r="AJ1" s="236"/>
-      <c r="AK1" s="236"/>
-      <c r="AL1" s="236"/>
-      <c r="AM1" s="236"/>
-      <c r="AN1" s="236"/>
-      <c r="AO1" s="236"/>
-      <c r="AP1" s="236"/>
-      <c r="AQ1" s="236"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="236"/>
-      <c r="AT1" s="236"/>
-      <c r="AU1" s="236"/>
-      <c r="AV1" s="236"/>
-      <c r="AW1" s="236"/>
-      <c r="AX1" s="236"/>
-      <c r="AY1" s="236"/>
-      <c r="AZ1" s="236"/>
-      <c r="BA1" s="236"/>
-      <c r="BB1" s="236"/>
-      <c r="BC1" s="236"/>
-      <c r="BD1" s="236"/>
-      <c r="BE1" s="236"/>
-      <c r="BF1" s="236"/>
-      <c r="BG1" s="236"/>
-      <c r="BH1" s="236"/>
-      <c r="BI1" s="236"/>
-      <c r="BJ1" s="236"/>
-      <c r="BK1" s="236"/>
-      <c r="BL1" s="236"/>
-      <c r="BM1" s="236"/>
-      <c r="BN1" s="236"/>
-      <c r="BO1" s="236"/>
-      <c r="BP1" s="236"/>
-      <c r="BQ1" s="236"/>
-      <c r="BR1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
+      <c r="T1" s="231"/>
+      <c r="U1" s="231"/>
+      <c r="V1" s="231"/>
+      <c r="W1" s="231"/>
+      <c r="X1" s="231"/>
+      <c r="Y1" s="231"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="231"/>
+      <c r="AB1" s="231"/>
+      <c r="AC1" s="231"/>
+      <c r="AD1" s="231"/>
+      <c r="AE1" s="231"/>
+      <c r="AF1" s="231"/>
+      <c r="AG1" s="231"/>
+      <c r="AH1" s="231"/>
+      <c r="AI1" s="231"/>
+      <c r="AJ1" s="231"/>
+      <c r="AK1" s="231"/>
+      <c r="AL1" s="231"/>
+      <c r="AM1" s="231"/>
+      <c r="AN1" s="231"/>
+      <c r="AO1" s="231"/>
+      <c r="AP1" s="231"/>
+      <c r="AQ1" s="231"/>
+      <c r="AR1" s="231"/>
+      <c r="AS1" s="231"/>
+      <c r="AT1" s="231"/>
+      <c r="AU1" s="231"/>
+      <c r="AV1" s="231"/>
+      <c r="AW1" s="231"/>
+      <c r="AX1" s="231"/>
+      <c r="AY1" s="231"/>
+      <c r="AZ1" s="231"/>
+      <c r="BA1" s="231"/>
+      <c r="BB1" s="231"/>
+      <c r="BC1" s="231"/>
+      <c r="BD1" s="231"/>
+      <c r="BE1" s="231"/>
+      <c r="BF1" s="231"/>
+      <c r="BG1" s="231"/>
+      <c r="BH1" s="231"/>
+      <c r="BI1" s="231"/>
+      <c r="BJ1" s="231"/>
+      <c r="BK1" s="231"/>
+      <c r="BL1" s="231"/>
+      <c r="BM1" s="231"/>
+      <c r="BN1" s="231"/>
+      <c r="BO1" s="231"/>
+      <c r="BP1" s="231"/>
+      <c r="BQ1" s="231"/>
+      <c r="BR1" s="231"/>
     </row>
     <row r="2" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
-      <c r="R2" s="237"/>
-      <c r="S2" s="237"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="237"/>
-      <c r="AA2" s="237"/>
-      <c r="AB2" s="237"/>
-      <c r="AC2" s="237"/>
-      <c r="AD2" s="237"/>
-      <c r="AE2" s="237"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="237"/>
-      <c r="AH2" s="237"/>
-      <c r="AI2" s="237"/>
-      <c r="AJ2" s="237"/>
-      <c r="AK2" s="237"/>
-      <c r="AL2" s="237"/>
-      <c r="AM2" s="237"/>
-      <c r="AN2" s="237"/>
-      <c r="AO2" s="237"/>
-      <c r="AP2" s="237"/>
-      <c r="AQ2" s="237"/>
-      <c r="AR2" s="237"/>
-      <c r="AS2" s="237"/>
-      <c r="AT2" s="237"/>
-      <c r="AU2" s="237"/>
-      <c r="AV2" s="237"/>
-      <c r="AW2" s="237"/>
-      <c r="AX2" s="237"/>
-      <c r="AY2" s="237"/>
-      <c r="AZ2" s="237"/>
-      <c r="BA2" s="237"/>
-      <c r="BB2" s="237"/>
-      <c r="BC2" s="237"/>
-      <c r="BD2" s="237"/>
-      <c r="BE2" s="237"/>
-      <c r="BF2" s="237"/>
-      <c r="BG2" s="237"/>
-      <c r="BH2" s="237"/>
-      <c r="BI2" s="237"/>
-      <c r="BJ2" s="237"/>
-      <c r="BK2" s="237"/>
-      <c r="BL2" s="237"/>
-      <c r="BM2" s="237"/>
-      <c r="BN2" s="237"/>
-      <c r="BO2" s="237"/>
-      <c r="BP2" s="237"/>
-      <c r="BQ2" s="237"/>
-      <c r="BR2" s="238"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="232"/>
+      <c r="AA2" s="232"/>
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="232"/>
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="232"/>
+      <c r="AG2" s="232"/>
+      <c r="AH2" s="232"/>
+      <c r="AI2" s="232"/>
+      <c r="AJ2" s="232"/>
+      <c r="AK2" s="232"/>
+      <c r="AL2" s="232"/>
+      <c r="AM2" s="232"/>
+      <c r="AN2" s="232"/>
+      <c r="AO2" s="232"/>
+      <c r="AP2" s="232"/>
+      <c r="AQ2" s="232"/>
+      <c r="AR2" s="232"/>
+      <c r="AS2" s="232"/>
+      <c r="AT2" s="232"/>
+      <c r="AU2" s="232"/>
+      <c r="AV2" s="232"/>
+      <c r="AW2" s="232"/>
+      <c r="AX2" s="232"/>
+      <c r="AY2" s="232"/>
+      <c r="AZ2" s="232"/>
+      <c r="BA2" s="232"/>
+      <c r="BB2" s="232"/>
+      <c r="BC2" s="232"/>
+      <c r="BD2" s="232"/>
+      <c r="BE2" s="232"/>
+      <c r="BF2" s="232"/>
+      <c r="BG2" s="232"/>
+      <c r="BH2" s="232"/>
+      <c r="BI2" s="232"/>
+      <c r="BJ2" s="232"/>
+      <c r="BK2" s="232"/>
+      <c r="BL2" s="232"/>
+      <c r="BM2" s="232"/>
+      <c r="BN2" s="232"/>
+      <c r="BO2" s="232"/>
+      <c r="BP2" s="232"/>
+      <c r="BQ2" s="232"/>
+      <c r="BR2" s="233"/>
     </row>
     <row r="3" spans="1:70" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
-      <c r="Q3" s="237"/>
-      <c r="R3" s="237"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="237"/>
-      <c r="X3" s="237"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="237"/>
-      <c r="AC3" s="237"/>
-      <c r="AD3" s="237"/>
-      <c r="AE3" s="237"/>
-      <c r="AF3" s="237"/>
-      <c r="AG3" s="237"/>
-      <c r="AH3" s="237"/>
-      <c r="AI3" s="237"/>
-      <c r="AJ3" s="237"/>
-      <c r="AK3" s="237"/>
-      <c r="AL3" s="237"/>
-      <c r="AM3" s="237"/>
-      <c r="AN3" s="237"/>
-      <c r="AO3" s="237"/>
-      <c r="AP3" s="237"/>
-      <c r="AQ3" s="237"/>
-      <c r="AR3" s="237"/>
-      <c r="AS3" s="237"/>
-      <c r="AT3" s="237"/>
-      <c r="AU3" s="237"/>
-      <c r="AV3" s="237"/>
-      <c r="AW3" s="237"/>
-      <c r="AX3" s="237"/>
-      <c r="AY3" s="237"/>
-      <c r="AZ3" s="237"/>
-      <c r="BA3" s="237"/>
-      <c r="BB3" s="237"/>
-      <c r="BC3" s="237"/>
-      <c r="BD3" s="237"/>
-      <c r="BE3" s="237"/>
-      <c r="BF3" s="237"/>
-      <c r="BG3" s="237"/>
-      <c r="BH3" s="237"/>
-      <c r="BI3" s="237"/>
-      <c r="BJ3" s="237"/>
-      <c r="BK3" s="237"/>
-      <c r="BL3" s="237"/>
-      <c r="BM3" s="237"/>
-      <c r="BN3" s="237"/>
-      <c r="BO3" s="237"/>
-      <c r="BP3" s="237"/>
-      <c r="BQ3" s="237"/>
-      <c r="BR3" s="238"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
+      <c r="Q3" s="232"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="232"/>
+      <c r="U3" s="232"/>
+      <c r="V3" s="232"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="232"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="232"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="232"/>
+      <c r="AG3" s="232"/>
+      <c r="AH3" s="232"/>
+      <c r="AI3" s="232"/>
+      <c r="AJ3" s="232"/>
+      <c r="AK3" s="232"/>
+      <c r="AL3" s="232"/>
+      <c r="AM3" s="232"/>
+      <c r="AN3" s="232"/>
+      <c r="AO3" s="232"/>
+      <c r="AP3" s="232"/>
+      <c r="AQ3" s="232"/>
+      <c r="AR3" s="232"/>
+      <c r="AS3" s="232"/>
+      <c r="AT3" s="232"/>
+      <c r="AU3" s="232"/>
+      <c r="AV3" s="232"/>
+      <c r="AW3" s="232"/>
+      <c r="AX3" s="232"/>
+      <c r="AY3" s="232"/>
+      <c r="AZ3" s="232"/>
+      <c r="BA3" s="232"/>
+      <c r="BB3" s="232"/>
+      <c r="BC3" s="232"/>
+      <c r="BD3" s="232"/>
+      <c r="BE3" s="232"/>
+      <c r="BF3" s="232"/>
+      <c r="BG3" s="232"/>
+      <c r="BH3" s="232"/>
+      <c r="BI3" s="232"/>
+      <c r="BJ3" s="232"/>
+      <c r="BK3" s="232"/>
+      <c r="BL3" s="232"/>
+      <c r="BM3" s="232"/>
+      <c r="BN3" s="232"/>
+      <c r="BO3" s="232"/>
+      <c r="BP3" s="232"/>
+      <c r="BQ3" s="232"/>
+      <c r="BR3" s="233"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="239"/>
-      <c r="B4" s="239"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="239"/>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
-      <c r="H4" s="239"/>
-      <c r="I4" s="239"/>
-      <c r="J4" s="239"/>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="239"/>
-      <c r="O4" s="239"/>
-      <c r="P4" s="239"/>
-      <c r="Q4" s="239"/>
-      <c r="R4" s="239"/>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="239"/>
-      <c r="W4" s="239"/>
-      <c r="X4" s="239"/>
-      <c r="Y4" s="239"/>
-      <c r="Z4" s="239"/>
-      <c r="AA4" s="239"/>
-      <c r="AB4" s="239"/>
-      <c r="AC4" s="239"/>
-      <c r="AD4" s="239"/>
-      <c r="AE4" s="239"/>
-      <c r="AF4" s="239"/>
-      <c r="AG4" s="239"/>
-      <c r="AH4" s="239"/>
-      <c r="AI4" s="239"/>
-      <c r="AJ4" s="239"/>
-      <c r="AK4" s="239"/>
-      <c r="AL4" s="239"/>
-      <c r="AM4" s="239"/>
-      <c r="AN4" s="239"/>
-      <c r="AO4" s="239"/>
-      <c r="AP4" s="239"/>
-      <c r="AQ4" s="239"/>
-      <c r="AR4" s="239"/>
-      <c r="AS4" s="239"/>
-      <c r="AT4" s="239"/>
-      <c r="AU4" s="239"/>
-      <c r="AV4" s="239"/>
-      <c r="AW4" s="239"/>
-      <c r="AX4" s="239"/>
-      <c r="AY4" s="239"/>
-      <c r="AZ4" s="239"/>
-      <c r="BA4" s="239"/>
-      <c r="BB4" s="239"/>
-      <c r="BC4" s="239"/>
-      <c r="BD4" s="239"/>
-      <c r="BE4" s="239"/>
-      <c r="BF4" s="239"/>
-      <c r="BG4" s="239"/>
-      <c r="BH4" s="239"/>
-      <c r="BI4" s="239"/>
-      <c r="BJ4" s="239"/>
-      <c r="BK4" s="239"/>
-      <c r="BL4" s="239"/>
-      <c r="BM4" s="239"/>
-      <c r="BN4" s="239"/>
-      <c r="BO4" s="239"/>
-      <c r="BP4" s="239"/>
-      <c r="BQ4" s="239"/>
-      <c r="BR4" s="240"/>
+      <c r="A4" s="234"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="234"/>
+      <c r="I4" s="234"/>
+      <c r="J4" s="234"/>
+      <c r="K4" s="234"/>
+      <c r="L4" s="234"/>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="234"/>
+      <c r="U4" s="234"/>
+      <c r="V4" s="234"/>
+      <c r="W4" s="234"/>
+      <c r="X4" s="234"/>
+      <c r="Y4" s="234"/>
+      <c r="Z4" s="234"/>
+      <c r="AA4" s="234"/>
+      <c r="AB4" s="234"/>
+      <c r="AC4" s="234"/>
+      <c r="AD4" s="234"/>
+      <c r="AE4" s="234"/>
+      <c r="AF4" s="234"/>
+      <c r="AG4" s="234"/>
+      <c r="AH4" s="234"/>
+      <c r="AI4" s="234"/>
+      <c r="AJ4" s="234"/>
+      <c r="AK4" s="234"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="234"/>
+      <c r="AN4" s="234"/>
+      <c r="AO4" s="234"/>
+      <c r="AP4" s="234"/>
+      <c r="AQ4" s="234"/>
+      <c r="AR4" s="234"/>
+      <c r="AS4" s="234"/>
+      <c r="AT4" s="234"/>
+      <c r="AU4" s="234"/>
+      <c r="AV4" s="234"/>
+      <c r="AW4" s="234"/>
+      <c r="AX4" s="234"/>
+      <c r="AY4" s="234"/>
+      <c r="AZ4" s="234"/>
+      <c r="BA4" s="234"/>
+      <c r="BB4" s="234"/>
+      <c r="BC4" s="234"/>
+      <c r="BD4" s="234"/>
+      <c r="BE4" s="234"/>
+      <c r="BF4" s="234"/>
+      <c r="BG4" s="234"/>
+      <c r="BH4" s="234"/>
+      <c r="BI4" s="234"/>
+      <c r="BJ4" s="234"/>
+      <c r="BK4" s="234"/>
+      <c r="BL4" s="234"/>
+      <c r="BM4" s="234"/>
+      <c r="BN4" s="234"/>
+      <c r="BO4" s="234"/>
+      <c r="BP4" s="234"/>
+      <c r="BQ4" s="234"/>
+      <c r="BR4" s="235"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -16237,11 +16236,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="235">
+      <c r="D8" s="245">
         <v>45040</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="245"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="K8" s="196" t="s">
@@ -16250,179 +16249,179 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="O8" s="232" t="str">
+      <c r="O8" s="240" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="233"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="233"/>
-      <c r="U8" s="234"/>
-      <c r="V8" s="232" t="str">
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="240" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="233"/>
-      <c r="X8" s="233"/>
-      <c r="Y8" s="233"/>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="232" t="str">
+      <c r="W8" s="241"/>
+      <c r="X8" s="241"/>
+      <c r="Y8" s="241"/>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="240" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="233"/>
-      <c r="AE8" s="233"/>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="233"/>
-      <c r="AH8" s="233"/>
-      <c r="AI8" s="234"/>
-      <c r="AJ8" s="232" t="str">
+      <c r="AD8" s="241"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="241"/>
+      <c r="AH8" s="241"/>
+      <c r="AI8" s="242"/>
+      <c r="AJ8" s="240" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="233"/>
-      <c r="AL8" s="233"/>
-      <c r="AM8" s="233"/>
-      <c r="AN8" s="233"/>
-      <c r="AO8" s="233"/>
-      <c r="AP8" s="234"/>
-      <c r="AQ8" s="232" t="str">
+      <c r="AK8" s="241"/>
+      <c r="AL8" s="241"/>
+      <c r="AM8" s="241"/>
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="241"/>
+      <c r="AP8" s="242"/>
+      <c r="AQ8" s="240" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="233"/>
-      <c r="AT8" s="233"/>
-      <c r="AU8" s="233"/>
-      <c r="AV8" s="233"/>
-      <c r="AW8" s="234"/>
-      <c r="AX8" s="232" t="str">
+      <c r="AR8" s="241"/>
+      <c r="AS8" s="241"/>
+      <c r="AT8" s="241"/>
+      <c r="AU8" s="241"/>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="242"/>
+      <c r="AX8" s="240" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="233"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="233"/>
-      <c r="BB8" s="233"/>
-      <c r="BC8" s="233"/>
-      <c r="BD8" s="234"/>
-      <c r="BE8" s="232" t="str">
+      <c r="AY8" s="241"/>
+      <c r="AZ8" s="241"/>
+      <c r="BA8" s="241"/>
+      <c r="BB8" s="241"/>
+      <c r="BC8" s="241"/>
+      <c r="BD8" s="242"/>
+      <c r="BE8" s="240" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="233"/>
-      <c r="BG8" s="233"/>
-      <c r="BH8" s="233"/>
-      <c r="BI8" s="233"/>
-      <c r="BJ8" s="233"/>
-      <c r="BK8" s="234"/>
-      <c r="BL8" s="232" t="str">
+      <c r="BF8" s="241"/>
+      <c r="BG8" s="241"/>
+      <c r="BH8" s="241"/>
+      <c r="BI8" s="241"/>
+      <c r="BJ8" s="241"/>
+      <c r="BK8" s="242"/>
+      <c r="BL8" s="240" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="233"/>
-      <c r="BN8" s="233"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="233"/>
-      <c r="BQ8" s="233"/>
-      <c r="BR8" s="245"/>
+      <c r="BM8" s="241"/>
+      <c r="BN8" s="241"/>
+      <c r="BO8" s="241"/>
+      <c r="BP8" s="241"/>
+      <c r="BQ8" s="241"/>
+      <c r="BR8" s="243"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="244" t="s">
         <v>1113</v>
       </c>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="O9" s="241">
+      <c r="O9" s="236">
         <f>O10</f>
         <v>45040</v>
       </c>
-      <c r="P9" s="242"/>
-      <c r="Q9" s="242"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="242"/>
-      <c r="T9" s="242"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="241">
+      <c r="P9" s="237"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="237"/>
+      <c r="S9" s="237"/>
+      <c r="T9" s="237"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="236">
         <f>V10</f>
         <v>45047</v>
       </c>
-      <c r="W9" s="242"/>
-      <c r="X9" s="242"/>
-      <c r="Y9" s="242"/>
-      <c r="Z9" s="242"/>
-      <c r="AA9" s="242"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="241">
+      <c r="W9" s="237"/>
+      <c r="X9" s="237"/>
+      <c r="Y9" s="237"/>
+      <c r="Z9" s="237"/>
+      <c r="AA9" s="237"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="236">
         <f>AC10</f>
         <v>45054</v>
       </c>
-      <c r="AD9" s="242"/>
-      <c r="AE9" s="242"/>
-      <c r="AF9" s="242"/>
-      <c r="AG9" s="242"/>
-      <c r="AH9" s="242"/>
-      <c r="AI9" s="243"/>
-      <c r="AJ9" s="241">
+      <c r="AD9" s="237"/>
+      <c r="AE9" s="237"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="237"/>
+      <c r="AH9" s="237"/>
+      <c r="AI9" s="238"/>
+      <c r="AJ9" s="236">
         <f>AJ10</f>
         <v>45061</v>
       </c>
-      <c r="AK9" s="242"/>
-      <c r="AL9" s="242"/>
-      <c r="AM9" s="242"/>
-      <c r="AN9" s="242"/>
-      <c r="AO9" s="242"/>
-      <c r="AP9" s="243"/>
-      <c r="AQ9" s="241">
+      <c r="AK9" s="237"/>
+      <c r="AL9" s="237"/>
+      <c r="AM9" s="237"/>
+      <c r="AN9" s="237"/>
+      <c r="AO9" s="237"/>
+      <c r="AP9" s="238"/>
+      <c r="AQ9" s="236">
         <f>AQ10</f>
         <v>45068</v>
       </c>
-      <c r="AR9" s="242"/>
-      <c r="AS9" s="242"/>
-      <c r="AT9" s="242"/>
-      <c r="AU9" s="242"/>
-      <c r="AV9" s="242"/>
-      <c r="AW9" s="243"/>
-      <c r="AX9" s="241">
+      <c r="AR9" s="237"/>
+      <c r="AS9" s="237"/>
+      <c r="AT9" s="237"/>
+      <c r="AU9" s="237"/>
+      <c r="AV9" s="237"/>
+      <c r="AW9" s="238"/>
+      <c r="AX9" s="236">
         <f>AX10</f>
         <v>45075</v>
       </c>
-      <c r="AY9" s="242"/>
-      <c r="AZ9" s="242"/>
-      <c r="BA9" s="242"/>
-      <c r="BB9" s="242"/>
-      <c r="BC9" s="242"/>
-      <c r="BD9" s="243"/>
-      <c r="BE9" s="241">
+      <c r="AY9" s="237"/>
+      <c r="AZ9" s="237"/>
+      <c r="BA9" s="237"/>
+      <c r="BB9" s="237"/>
+      <c r="BC9" s="237"/>
+      <c r="BD9" s="238"/>
+      <c r="BE9" s="236">
         <f>BE10</f>
         <v>45082</v>
       </c>
-      <c r="BF9" s="242"/>
-      <c r="BG9" s="242"/>
-      <c r="BH9" s="242"/>
-      <c r="BI9" s="242"/>
-      <c r="BJ9" s="242"/>
-      <c r="BK9" s="243"/>
-      <c r="BL9" s="241">
+      <c r="BF9" s="237"/>
+      <c r="BG9" s="237"/>
+      <c r="BH9" s="237"/>
+      <c r="BI9" s="237"/>
+      <c r="BJ9" s="237"/>
+      <c r="BK9" s="238"/>
+      <c r="BL9" s="236">
         <f>BL10</f>
         <v>45089</v>
       </c>
-      <c r="BM9" s="242"/>
-      <c r="BN9" s="242"/>
-      <c r="BO9" s="242"/>
-      <c r="BP9" s="242"/>
-      <c r="BQ9" s="242"/>
-      <c r="BR9" s="244"/>
+      <c r="BM9" s="237"/>
+      <c r="BN9" s="237"/>
+      <c r="BO9" s="237"/>
+      <c r="BP9" s="237"/>
+      <c r="BQ9" s="237"/>
+      <c r="BR9" s="239"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="33">
@@ -16916,7 +16915,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:70" s="165" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:70" s="165" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="147" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -17005,7 +17004,7 @@
       <c r="BQ12" s="157"/>
       <c r="BR12" s="185"/>
     </row>
-    <row r="13" spans="1:70" s="87" customFormat="1" ht="51" hidden="1">
+    <row r="13" spans="1:70" s="87" customFormat="1" ht="51">
       <c r="A13" s="146" t="str">
         <f t="shared" ref="A13:A45" si="45">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -17023,7 +17022,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="G13" s="142" t="s">
         <v>35</v>
@@ -17102,7 +17101,7 @@
       <c r="BQ13" s="59"/>
       <c r="BR13" s="188"/>
     </row>
-    <row r="14" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="14" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.2</v>
@@ -17199,7 +17198,7 @@
       <c r="BQ14" s="59"/>
       <c r="BR14" s="188"/>
     </row>
-    <row r="15" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="15" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.3</v>
@@ -17296,7 +17295,7 @@
       <c r="BQ15" s="59"/>
       <c r="BR15" s="188"/>
     </row>
-    <row r="16" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.4</v>
@@ -17393,7 +17392,7 @@
       <c r="BQ16" s="47"/>
       <c r="BR16" s="186"/>
     </row>
-    <row r="17" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="17" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.5</v>
@@ -17490,7 +17489,7 @@
       <c r="BQ17" s="137"/>
       <c r="BR17" s="187"/>
     </row>
-    <row r="18" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="18" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.6</v>
@@ -17587,7 +17586,7 @@
       <c r="BQ18" s="59"/>
       <c r="BR18" s="188"/>
     </row>
-    <row r="19" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="19" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.7</v>
@@ -17684,7 +17683,7 @@
       <c r="BQ19" s="47"/>
       <c r="BR19" s="186"/>
     </row>
-    <row r="20" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="20" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.8</v>
@@ -17781,7 +17780,7 @@
       <c r="BQ20" s="137"/>
       <c r="BR20" s="187"/>
     </row>
-    <row r="21" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.9</v>
@@ -17878,7 +17877,7 @@
       <c r="BQ21" s="47"/>
       <c r="BR21" s="186"/>
     </row>
-    <row r="22" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="22" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.10</v>
@@ -17975,7 +17974,7 @@
       <c r="BQ22" s="47"/>
       <c r="BR22" s="186"/>
     </row>
-    <row r="23" spans="1:70" s="87" customFormat="1" ht="63.75" hidden="1">
+    <row r="23" spans="1:70" s="87" customFormat="1" ht="63.75">
       <c r="A23" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.11</v>
@@ -17993,7 +17992,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G23" s="142" t="s">
         <v>35</v>
@@ -18072,7 +18071,7 @@
       <c r="BQ23" s="47"/>
       <c r="BR23" s="186"/>
     </row>
-    <row r="24" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="24" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.12</v>
@@ -18090,7 +18089,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="G24" s="143" t="s">
         <v>35</v>
@@ -18169,7 +18168,7 @@
       <c r="BQ24" s="59"/>
       <c r="BR24" s="188"/>
     </row>
-    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="25" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.13</v>
@@ -18266,7 +18265,7 @@
       <c r="BQ25" s="59"/>
       <c r="BR25" s="188"/>
     </row>
-    <row r="26" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="26" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.14</v>
@@ -18363,7 +18362,7 @@
       <c r="BQ26" s="59"/>
       <c r="BR26" s="188"/>
     </row>
-    <row r="27" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="27" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.15</v>
@@ -18460,7 +18459,7 @@
       <c r="BQ27" s="59"/>
       <c r="BR27" s="188"/>
     </row>
-    <row r="28" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="28" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.16</v>
@@ -18557,7 +18556,7 @@
       <c r="BQ28" s="59"/>
       <c r="BR28" s="188"/>
     </row>
-    <row r="29" spans="1:70" s="166" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="29" spans="1:70" s="166" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="76" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -18646,7 +18645,7 @@
       <c r="BQ29" s="85"/>
       <c r="BR29" s="190"/>
     </row>
-    <row r="30" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="30" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.1</v>
@@ -18743,7 +18742,7 @@
       <c r="BQ30" s="47"/>
       <c r="BR30" s="186"/>
     </row>
-    <row r="31" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="31" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.2</v>
@@ -18840,7 +18839,7 @@
       <c r="BQ31" s="47"/>
       <c r="BR31" s="186"/>
     </row>
-    <row r="32" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="32" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A32" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.3</v>
@@ -18858,7 +18857,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="G32" s="142" t="s">
         <v>35</v>
@@ -18937,7 +18936,7 @@
       <c r="BQ32" s="47"/>
       <c r="BR32" s="186"/>
     </row>
-    <row r="33" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="33" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.4</v>
@@ -19034,7 +19033,7 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="186"/>
     </row>
-    <row r="34" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="34" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.5</v>
@@ -19131,7 +19130,7 @@
       <c r="BQ34" s="47"/>
       <c r="BR34" s="186"/>
     </row>
-    <row r="35" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="35" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.6</v>
@@ -19228,7 +19227,7 @@
       <c r="BQ35" s="47"/>
       <c r="BR35" s="186"/>
     </row>
-    <row r="36" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="36" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A36" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.7</v>
@@ -19325,7 +19324,7 @@
       <c r="BQ36" s="47"/>
       <c r="BR36" s="186"/>
     </row>
-    <row r="37" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="37" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A37" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.8</v>
@@ -19422,7 +19421,7 @@
       <c r="BQ37" s="47"/>
       <c r="BR37" s="186"/>
     </row>
-    <row r="38" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="38" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A38" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.9</v>
@@ -19519,7 +19518,7 @@
       <c r="BQ38" s="47"/>
       <c r="BR38" s="186"/>
     </row>
-    <row r="39" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="39" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.10</v>
@@ -19616,7 +19615,7 @@
       <c r="BQ39" s="47"/>
       <c r="BR39" s="186"/>
     </row>
-    <row r="40" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="40" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A40" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.11</v>
@@ -19713,7 +19712,7 @@
       <c r="BQ40" s="49"/>
       <c r="BR40" s="189"/>
     </row>
-    <row r="41" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="41" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A41" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.12</v>
@@ -20004,7 +20003,7 @@
       <c r="BQ43" s="47"/>
       <c r="BR43" s="186"/>
     </row>
-    <row r="44" spans="1:70" s="87" customFormat="1" ht="38.25">
+    <row r="44" spans="1:70" s="87" customFormat="1" ht="63.75">
       <c r="A44" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.15</v>
@@ -20022,7 +20021,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="G44" s="142" t="s">
         <v>35</v>
@@ -20119,7 +20118,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G45" s="142" t="s">
         <v>35</v>
@@ -20198,7 +20197,7 @@
       <c r="BQ45" s="47"/>
       <c r="BR45" s="186"/>
     </row>
-    <row r="46" spans="1:70" s="167" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="46" spans="1:70" s="167" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A46" s="68" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -20287,7 +20286,7 @@
       <c r="BQ46" s="86"/>
       <c r="BR46" s="191"/>
     </row>
-    <row r="47" spans="1:70" s="87" customFormat="1" ht="26.25" hidden="1" thickBot="1">
+    <row r="47" spans="1:70" s="87" customFormat="1" ht="25.5">
       <c r="A47" s="146" t="str">
         <f t="shared" ref="A47:A51" si="57">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -20305,7 +20304,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G47" s="142" t="s">
         <v>35</v>
@@ -20384,7 +20383,7 @@
       <c r="BQ47" s="47"/>
       <c r="BR47" s="186"/>
     </row>
-    <row r="48" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="48" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.2</v>
@@ -20402,7 +20401,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="G48" s="142" t="s">
         <v>35</v>
@@ -20481,7 +20480,7 @@
       <c r="BQ48" s="47"/>
       <c r="BR48" s="186"/>
     </row>
-    <row r="49" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="49" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.3</v>
@@ -20499,7 +20498,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="G49" s="142" t="s">
         <v>35</v>
@@ -20578,7 +20577,7 @@
       <c r="BQ49" s="47"/>
       <c r="BR49" s="186"/>
     </row>
-    <row r="50" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="50" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A50" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.4</v>
@@ -20596,7 +20595,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G50" s="142" t="s">
         <v>35</v>
@@ -20675,7 +20674,7 @@
       <c r="BQ50" s="47"/>
       <c r="BR50" s="186"/>
     </row>
-    <row r="51" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="51" spans="1:70" s="87" customFormat="1" ht="39" thickBot="1">
       <c r="A51" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.5</v>
@@ -20693,7 +20692,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="G51" s="142" t="s">
         <v>35</v>
@@ -20772,7 +20771,7 @@
       <c r="BQ51" s="47"/>
       <c r="BR51" s="186"/>
     </row>
-    <row r="52" spans="1:70" s="167" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="52" spans="1:70" s="167" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A52" s="68" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -20861,7 +20860,7 @@
       <c r="BQ52" s="86"/>
       <c r="BR52" s="191"/>
     </row>
-    <row r="53" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="53" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A53" s="145" t="str">
         <f t="shared" ref="A53:A59" si="63">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -20879,7 +20878,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="G53" s="144" t="s">
         <v>35</v>
@@ -20958,7 +20957,7 @@
       <c r="BQ53" s="47"/>
       <c r="BR53" s="186"/>
     </row>
-    <row r="54" spans="1:70" s="87" customFormat="1" ht="76.5" hidden="1" customHeight="1">
+    <row r="54" spans="1:70" s="87" customFormat="1" ht="76.5" customHeight="1">
       <c r="A54" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.2</v>
@@ -20976,7 +20975,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="G54" s="142" t="s">
         <v>35</v>
@@ -21055,7 +21054,7 @@
       <c r="BQ54" s="47"/>
       <c r="BR54" s="186"/>
     </row>
-    <row r="55" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="55" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A55" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.3</v>
@@ -21073,7 +21072,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
       <c r="G55" s="142" t="s">
         <v>35</v>
@@ -21152,7 +21151,7 @@
       <c r="BQ55" s="47"/>
       <c r="BR55" s="186"/>
     </row>
-    <row r="56" spans="1:70" s="87" customFormat="1" ht="39" hidden="1" thickBot="1">
+    <row r="56" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A56" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.4</v>
@@ -21170,7 +21169,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="G56" s="142" t="s">
         <v>35</v>
@@ -21249,7 +21248,7 @@
       <c r="BQ56" s="47"/>
       <c r="BR56" s="186"/>
     </row>
-    <row r="57" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="57" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A57" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.5</v>
@@ -21267,7 +21266,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="G57" s="142" t="s">
         <v>35</v>
@@ -21346,7 +21345,7 @@
       <c r="BQ57" s="47"/>
       <c r="BR57" s="186"/>
     </row>
-    <row r="58" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="58" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1">
       <c r="A58" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.6</v>
@@ -21364,7 +21363,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="G58" s="142" t="s">
         <v>35</v>
@@ -21443,7 +21442,7 @@
       <c r="BQ58" s="47"/>
       <c r="BR58" s="186"/>
     </row>
-    <row r="59" spans="1:70" s="87" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1">
+    <row r="59" spans="1:70" s="87" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A59" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.7</v>
@@ -21461,7 +21460,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="G59" s="142" t="s">
         <v>35</v>
@@ -21614,14 +21613,14 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="220501095"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="22">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -21638,12 +21637,6 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L21:L22">
     <cfRule type="dataBar" priority="116">
@@ -22382,59 +22375,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22482,59 +22475,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22582,59 +22575,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22682,59 +22675,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
+      <c r="A1" s="231"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="232"/>
+      <c r="P2" s="232"/>
     </row>
     <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
-      <c r="A3" s="237" t="s">
+      <c r="A3" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
-      <c r="I3" s="237"/>
-      <c r="J3" s="237"/>
-      <c r="K3" s="237"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="237"/>
-      <c r="P3" s="237"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="232"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="232"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
